--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_20_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_20_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>449603.0013886388</v>
+        <v>378675.4317864408</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10334148.96627842</v>
+        <v>10334922.83450519</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7868603.719797403</v>
+        <v>7868743.980730431</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>81.61928733384138</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>56.70400066026085</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.91528667358037</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>92.66494928910245</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>81.61928733384138</v>
       </c>
       <c r="C3" t="n">
-        <v>1.641827527168506</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>65.63472101605001</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>14.3427387906227</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>98.74883103803275</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>112.1126601249237</v>
+        <v>104.0764085515852</v>
       </c>
       <c r="G5" t="n">
-        <v>112.1126601249237</v>
+        <v>104.0764085515852</v>
       </c>
       <c r="H5" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -940,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>18.93475531691777</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>72.73574533531848</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>104.0764085515852</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -986,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>104.0764085515852</v>
       </c>
       <c r="G6" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>102.5038294629841</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>16.65323814921977</v>
+        <v>10.12521916190531</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.095592888813</v>
+        <v>83.11786057893197</v>
       </c>
       <c r="S6" t="n">
-        <v>112.1126601249237</v>
+        <v>104.0764085515852</v>
       </c>
       <c r="T6" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>3.625377488803587</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.555083488386109</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1177,25 +1177,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.61164031771682</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>83.13719072031593</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>126.9458560974893</v>
       </c>
       <c r="U8" t="n">
-        <v>112.1126601249237</v>
+        <v>126.9458560974893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>111.8139100506686</v>
       </c>
       <c r="W8" t="n">
-        <v>112.1126601249237</v>
+        <v>126.9458560974893</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>126.9458560974893</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>4.748208574520422</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>112.1126601249237</v>
+        <v>126.9458560974893</v>
       </c>
       <c r="G9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>68.66600999935604</v>
+        <v>102.0257834655354</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>30.08282103867671</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>5.039918010612723</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>126.9458560974893</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>7.778950646888539</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>3.625377488803587</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>378.0548856582863</v>
+        <v>152.6084378434675</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>411.8707348436268</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>78.16360657708293</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>208.0722578696039</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U11" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>135.5072338470352</v>
       </c>
       <c r="H12" t="n">
-        <v>94.50081326185513</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I12" t="n">
-        <v>36.29946757904882</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U12" t="n">
-        <v>93.21114789495171</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1514,10 +1514,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>181.6698944941531</v>
       </c>
     </row>
     <row r="13">
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>29.85116173898185</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>18.15430933923919</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.0133056736544</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>345.1468552621999</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I14" t="n">
-        <v>78.1636065770829</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>138.9722145067548</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1685,19 +1685,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>51.85254607929976</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>146.6175660813638</v>
       </c>
     </row>
     <row r="16">
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>40.20690263795984</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1809,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.59469128425545</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.1876907596158</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>144.2957156879722</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>130.1425308128795</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>270.2872524649983</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1934,13 +1934,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>82.38878636606788</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>94.41491717951939</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>31.11666063128115</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>137.4098141164183</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>7.633300254029293</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1991,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.234651107148</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>192.0325146249102</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>246.4412936084449</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>202.8875324968996</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.8541122488589</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>174.4408625223547</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>65.33978205442752</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T21" t="n">
-        <v>192.7273697641395</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8199888448919</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2225,7 +2225,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>139.1386354747069</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24.49734629683939</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>39.48192853519618</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>315.8864050262696</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>34.8309945668555</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2414,7 +2414,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I24" t="n">
         <v>18.81721868247742</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>29.28952983701037</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>37.67709528776653</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>173.6076827274352</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>190.6220923681502</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>61.36917500886953</v>
+        <v>93.35882079148007</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0.2901074925137028</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>81.4081063821957</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>127.6752559270063</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>203.7029035467948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3091,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>78.78083674902116</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>3.222651934127061</v>
       </c>
     </row>
     <row r="33">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>134.7466378365503</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>87.93270968653111</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>328.4290506805506</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>119.930740786684</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>38.69000991140444</v>
       </c>
       <c r="Y37" t="n">
-        <v>81.46084344268519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>59.3299629153293</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>94.06042130642891</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3599,7 +3599,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
         <v>18.81721868247742</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>53.54735467376835</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>158.8381429633328</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>173.2057702920267</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3757,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>260.1478989722381</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>49.56582321395845</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>58.28185552386306</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>225.7508892923955</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>148.615183167112</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>149.3991884271815</v>
+        <v>146.5755992117469</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89.85692052276578</v>
+        <v>89.85692052276598</v>
       </c>
       <c r="C2" t="n">
-        <v>89.85692052276578</v>
+        <v>89.85692052276598</v>
       </c>
       <c r="D2" t="n">
-        <v>89.85692052276578</v>
+        <v>89.85692052276598</v>
       </c>
       <c r="E2" t="n">
-        <v>89.85692052276578</v>
+        <v>89.85692052276598</v>
       </c>
       <c r="F2" t="n">
-        <v>89.85692052276578</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="G2" t="n">
-        <v>89.85692052276578</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="H2" t="n">
-        <v>89.85692052276578</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="I2" t="n">
-        <v>32.58015217906794</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="J2" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="K2" t="n">
-        <v>21.18357364821451</v>
+        <v>21.1835736482147</v>
       </c>
       <c r="L2" t="n">
-        <v>75.16870670940374</v>
+        <v>75.16870670940411</v>
       </c>
       <c r="M2" t="n">
-        <v>166.9070065056148</v>
+        <v>166.9070065056153</v>
       </c>
       <c r="N2" t="n">
-        <v>258.6453063018261</v>
+        <v>258.6453063018267</v>
       </c>
       <c r="O2" t="n">
-        <v>337.6943058037292</v>
+        <v>337.6943058037301</v>
       </c>
       <c r="P2" t="n">
-        <v>370.6597971564088</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="Q2" t="n">
-        <v>370.6597971564088</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="R2" t="n">
-        <v>370.6597971564088</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="S2" t="n">
-        <v>370.6597971564088</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="T2" t="n">
-        <v>277.0588382785278</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="U2" t="n">
-        <v>277.0588382785278</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="V2" t="n">
-        <v>183.4578794006468</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="W2" t="n">
-        <v>183.4578794006468</v>
+        <v>277.0588382785285</v>
       </c>
       <c r="X2" t="n">
-        <v>183.4578794006468</v>
+        <v>183.4578794006472</v>
       </c>
       <c r="Y2" t="n">
-        <v>183.4578794006468</v>
+        <v>89.85692052276598</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>356.1721822163859</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="C3" t="n">
-        <v>354.5137705727813</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="D3" t="n">
-        <v>354.5137705727813</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="E3" t="n">
-        <v>260.9128116949003</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="F3" t="n">
-        <v>260.9128116949003</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="G3" t="n">
-        <v>167.3118528170193</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="H3" t="n">
-        <v>73.71089393913829</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="I3" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="J3" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="K3" t="n">
-        <v>28.29609765201163</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="L3" t="n">
-        <v>102.6982772648967</v>
+        <v>81.81537555601344</v>
       </c>
       <c r="M3" t="n">
-        <v>194.4365770611079</v>
+        <v>173.5536753522248</v>
       </c>
       <c r="N3" t="n">
-        <v>226.5580308522524</v>
+        <v>265.2919751484363</v>
       </c>
       <c r="O3" t="n">
-        <v>317.2247932514005</v>
+        <v>355.9587375475845</v>
       </c>
       <c r="P3" t="n">
-        <v>370.6597971564088</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="Q3" t="n">
-        <v>356.1721822163859</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="R3" t="n">
-        <v>356.1721822163859</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="S3" t="n">
-        <v>356.1721822163859</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="T3" t="n">
-        <v>356.1721822163859</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="U3" t="n">
-        <v>356.1721822163859</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="V3" t="n">
-        <v>356.1721822163859</v>
+        <v>277.0588382785285</v>
       </c>
       <c r="W3" t="n">
-        <v>356.1721822163859</v>
+        <v>183.4578794006472</v>
       </c>
       <c r="X3" t="n">
-        <v>356.1721822163859</v>
+        <v>89.85692052276598</v>
       </c>
       <c r="Y3" t="n">
-        <v>356.1721822163859</v>
+        <v>89.85692052276598</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="C4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="D4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="E4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="F4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="G4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="H4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="I4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="J4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="K4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="L4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="M4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="N4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="O4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="P4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="R4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="S4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="T4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="U4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="V4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="W4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="X4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>448.4506404996946</v>
+        <v>218.5814834954101</v>
       </c>
       <c r="C5" t="n">
-        <v>448.4506404996946</v>
+        <v>218.5814834954101</v>
       </c>
       <c r="D5" t="n">
-        <v>448.4506404996946</v>
+        <v>218.5814834954101</v>
       </c>
       <c r="E5" t="n">
-        <v>348.7043465218837</v>
+        <v>218.5814834954101</v>
       </c>
       <c r="F5" t="n">
-        <v>235.4592352845871</v>
+        <v>113.4537980897684</v>
       </c>
       <c r="G5" t="n">
-        <v>122.2141240472905</v>
+        <v>8.326112684126816</v>
       </c>
       <c r="H5" t="n">
-        <v>8.969012809993892</v>
+        <v>8.326112684126816</v>
       </c>
       <c r="I5" t="n">
-        <v>8.969012809993892</v>
+        <v>8.326112684126816</v>
       </c>
       <c r="J5" t="n">
-        <v>8.969012809993892</v>
+        <v>8.326112684126816</v>
       </c>
       <c r="K5" t="n">
-        <v>32.11753523687554</v>
+        <v>27.59936511590412</v>
       </c>
       <c r="L5" t="n">
-        <v>97.73708609773416</v>
+        <v>88.41130087302241</v>
       </c>
       <c r="M5" t="n">
-        <v>202.4209174083929</v>
+        <v>187.745734052511</v>
       </c>
       <c r="N5" t="n">
-        <v>313.4124509320674</v>
+        <v>290.7813785185804</v>
       </c>
       <c r="O5" t="n">
-        <v>404.8833474416797</v>
+        <v>377.119254992324</v>
       </c>
       <c r="P5" t="n">
-        <v>448.4506404996946</v>
+        <v>416.3056342063408</v>
       </c>
       <c r="Q5" t="n">
-        <v>448.4506404996946</v>
+        <v>397.1796187347067</v>
       </c>
       <c r="R5" t="n">
-        <v>448.4506404996946</v>
+        <v>397.1796187347067</v>
       </c>
       <c r="S5" t="n">
-        <v>448.4506404996946</v>
+        <v>323.7091689010517</v>
       </c>
       <c r="T5" t="n">
-        <v>448.4506404996946</v>
+        <v>323.7091689010517</v>
       </c>
       <c r="U5" t="n">
-        <v>448.4506404996946</v>
+        <v>218.5814834954101</v>
       </c>
       <c r="V5" t="n">
-        <v>448.4506404996946</v>
+        <v>218.5814834954101</v>
       </c>
       <c r="W5" t="n">
-        <v>448.4506404996946</v>
+        <v>218.5814834954101</v>
       </c>
       <c r="X5" t="n">
-        <v>448.4506404996946</v>
+        <v>218.5814834954101</v>
       </c>
       <c r="Y5" t="n">
-        <v>448.4506404996946</v>
+        <v>218.5814834954101</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>139.0355767232701</v>
+        <v>227.2205138724851</v>
       </c>
       <c r="C6" t="n">
-        <v>139.0355767232701</v>
+        <v>227.2205138724851</v>
       </c>
       <c r="D6" t="n">
-        <v>139.0355767232701</v>
+        <v>227.2205138724851</v>
       </c>
       <c r="E6" t="n">
-        <v>139.0355767232701</v>
+        <v>227.2205138724851</v>
       </c>
       <c r="F6" t="n">
-        <v>139.0355767232701</v>
+        <v>122.0928284668434</v>
       </c>
       <c r="G6" t="n">
-        <v>25.79046548597346</v>
+        <v>122.0928284668434</v>
       </c>
       <c r="H6" t="n">
-        <v>25.79046548597346</v>
+        <v>18.55360678706147</v>
       </c>
       <c r="I6" t="n">
-        <v>25.79046548597346</v>
+        <v>18.55360678706147</v>
       </c>
       <c r="J6" t="n">
-        <v>8.969012809993892</v>
+        <v>8.326112684126816</v>
       </c>
       <c r="K6" t="n">
-        <v>36.22166818534551</v>
+        <v>32.94663601288062</v>
       </c>
       <c r="L6" t="n">
-        <v>119.1887676792232</v>
+        <v>112.3745091448379</v>
       </c>
       <c r="M6" t="n">
-        <v>230.1803012028977</v>
+        <v>215.4101536109073</v>
       </c>
       <c r="N6" t="n">
-        <v>287.4309731640694</v>
+        <v>318.4457980769766</v>
       </c>
       <c r="O6" t="n">
-        <v>387.4830745953194</v>
+        <v>358.4507001037087</v>
       </c>
       <c r="P6" t="n">
-        <v>448.4506404996946</v>
+        <v>416.3056342063408</v>
       </c>
       <c r="Q6" t="n">
-        <v>448.4506404996946</v>
+        <v>416.3056342063408</v>
       </c>
       <c r="R6" t="n">
-        <v>365.5257991978633</v>
+        <v>332.3481992781267</v>
       </c>
       <c r="S6" t="n">
-        <v>252.2806879605667</v>
+        <v>227.2205138724851</v>
       </c>
       <c r="T6" t="n">
-        <v>139.0355767232701</v>
+        <v>227.2205138724851</v>
       </c>
       <c r="U6" t="n">
-        <v>139.0355767232701</v>
+        <v>227.2205138724851</v>
       </c>
       <c r="V6" t="n">
-        <v>139.0355767232701</v>
+        <v>227.2205138724851</v>
       </c>
       <c r="W6" t="n">
-        <v>139.0355767232701</v>
+        <v>227.2205138724851</v>
       </c>
       <c r="X6" t="n">
-        <v>139.0355767232701</v>
+        <v>227.2205138724851</v>
       </c>
       <c r="Y6" t="n">
-        <v>139.0355767232701</v>
+        <v>227.2205138724851</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.63101027343186</v>
+        <v>8.326112684126816</v>
       </c>
       <c r="C7" t="n">
-        <v>12.63101027343186</v>
+        <v>8.326112684126816</v>
       </c>
       <c r="D7" t="n">
-        <v>12.63101027343186</v>
+        <v>8.326112684126816</v>
       </c>
       <c r="E7" t="n">
-        <v>12.63101027343186</v>
+        <v>8.326112684126816</v>
       </c>
       <c r="F7" t="n">
-        <v>12.63101027343186</v>
+        <v>8.326112684126816</v>
       </c>
       <c r="G7" t="n">
-        <v>12.63101027343186</v>
+        <v>8.326112684126816</v>
       </c>
       <c r="H7" t="n">
-        <v>12.63101027343186</v>
+        <v>8.326112684126816</v>
       </c>
       <c r="I7" t="n">
-        <v>12.63101027343186</v>
+        <v>8.326112684126816</v>
       </c>
       <c r="J7" t="n">
-        <v>12.63101027343186</v>
+        <v>8.326112684126816</v>
       </c>
       <c r="K7" t="n">
-        <v>12.63101027343186</v>
+        <v>8.326112684126816</v>
       </c>
       <c r="L7" t="n">
-        <v>12.63101027343186</v>
+        <v>8.326112684126816</v>
       </c>
       <c r="M7" t="n">
-        <v>8.969012809993892</v>
+        <v>8.326112684126816</v>
       </c>
       <c r="N7" t="n">
-        <v>12.63101027343186</v>
+        <v>9.896904086537027</v>
       </c>
       <c r="O7" t="n">
-        <v>12.63101027343186</v>
+        <v>9.896904086537027</v>
       </c>
       <c r="P7" t="n">
-        <v>12.63101027343186</v>
+        <v>9.896904086537027</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.63101027343186</v>
+        <v>9.896904086537027</v>
       </c>
       <c r="R7" t="n">
-        <v>12.63101027343186</v>
+        <v>9.896904086537027</v>
       </c>
       <c r="S7" t="n">
-        <v>12.63101027343186</v>
+        <v>9.896904086537027</v>
       </c>
       <c r="T7" t="n">
-        <v>12.63101027343186</v>
+        <v>9.896904086537027</v>
       </c>
       <c r="U7" t="n">
-        <v>12.63101027343186</v>
+        <v>9.896904086537027</v>
       </c>
       <c r="V7" t="n">
-        <v>12.63101027343186</v>
+        <v>8.326112684126816</v>
       </c>
       <c r="W7" t="n">
-        <v>12.63101027343186</v>
+        <v>8.326112684126816</v>
       </c>
       <c r="X7" t="n">
-        <v>12.63101027343186</v>
+        <v>8.326112684126816</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.63101027343186</v>
+        <v>8.326112684126816</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.969012809993892</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="C8" t="n">
-        <v>8.969012809993892</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="D8" t="n">
-        <v>8.969012809993892</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="E8" t="n">
-        <v>8.969012809993892</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="F8" t="n">
-        <v>8.969012809993892</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="G8" t="n">
-        <v>8.969012809993892</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="H8" t="n">
-        <v>8.969012809993892</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="I8" t="n">
-        <v>8.969012809993892</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="J8" t="n">
-        <v>8.969012809993892</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="K8" t="n">
-        <v>32.11753523687554</v>
+        <v>41.07903710983521</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773416</v>
+        <v>116.3439721747117</v>
       </c>
       <c r="M8" t="n">
-        <v>202.4209174083929</v>
+        <v>231.7601518789119</v>
       </c>
       <c r="N8" t="n">
-        <v>313.4124509320674</v>
+        <v>353.6576944134599</v>
       </c>
       <c r="O8" t="n">
-        <v>404.8833474416797</v>
+        <v>455.4268259740344</v>
       </c>
       <c r="P8" t="n">
-        <v>448.4506404996946</v>
+        <v>507.7834243899571</v>
       </c>
       <c r="Q8" t="n">
-        <v>432.6813068454352</v>
+        <v>507.7834243899571</v>
       </c>
       <c r="R8" t="n">
-        <v>348.7043465218837</v>
+        <v>507.7834243899572</v>
       </c>
       <c r="S8" t="n">
-        <v>235.4592352845871</v>
+        <v>507.7834243899572</v>
       </c>
       <c r="T8" t="n">
-        <v>235.4592352845871</v>
+        <v>379.5552869177458</v>
       </c>
       <c r="U8" t="n">
-        <v>122.2141240472905</v>
+        <v>251.3271494455344</v>
       </c>
       <c r="V8" t="n">
-        <v>122.2141240472905</v>
+        <v>138.3838059600106</v>
       </c>
       <c r="W8" t="n">
-        <v>8.969012809993892</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="X8" t="n">
-        <v>8.969012809993892</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.969012809993892</v>
+        <v>10.15566848779914</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>448.4506404996946</v>
+        <v>246.2363231721882</v>
       </c>
       <c r="C9" t="n">
-        <v>448.4506404996946</v>
+        <v>241.4401528948948</v>
       </c>
       <c r="D9" t="n">
-        <v>448.4506404996946</v>
+        <v>241.4401528948948</v>
       </c>
       <c r="E9" t="n">
-        <v>335.205529262398</v>
+        <v>241.4401528948948</v>
       </c>
       <c r="F9" t="n">
-        <v>221.9604180251014</v>
+        <v>113.2120154226834</v>
       </c>
       <c r="G9" t="n">
-        <v>108.7153067878047</v>
+        <v>113.2120154226834</v>
       </c>
       <c r="H9" t="n">
-        <v>39.35570072784915</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="I9" t="n">
-        <v>39.35570072784915</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="J9" t="n">
-        <v>8.969012809993892</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="K9" t="n">
-        <v>36.22166818534551</v>
+        <v>42.6890970359848</v>
       </c>
       <c r="L9" t="n">
-        <v>119.1887676792232</v>
+        <v>82.60007748642957</v>
       </c>
       <c r="M9" t="n">
-        <v>176.439439640395</v>
+        <v>207.0617625189971</v>
       </c>
       <c r="N9" t="n">
-        <v>287.4309731640694</v>
+        <v>332.7381600555115</v>
       </c>
       <c r="O9" t="n">
-        <v>387.4830745953194</v>
+        <v>440.571072044567</v>
       </c>
       <c r="P9" t="n">
-        <v>448.4506404996946</v>
+        <v>507.7834243899572</v>
       </c>
       <c r="Q9" t="n">
-        <v>448.4506404996946</v>
+        <v>502.692598116611</v>
       </c>
       <c r="R9" t="n">
-        <v>448.4506404996946</v>
+        <v>502.692598116611</v>
       </c>
       <c r="S9" t="n">
-        <v>448.4506404996946</v>
+        <v>502.692598116611</v>
       </c>
       <c r="T9" t="n">
-        <v>448.4506404996946</v>
+        <v>502.692598116611</v>
       </c>
       <c r="U9" t="n">
-        <v>448.4506404996946</v>
+        <v>502.692598116611</v>
       </c>
       <c r="V9" t="n">
-        <v>448.4506404996946</v>
+        <v>502.692598116611</v>
       </c>
       <c r="W9" t="n">
-        <v>448.4506404996946</v>
+        <v>374.4644606443996</v>
       </c>
       <c r="X9" t="n">
-        <v>448.4506404996946</v>
+        <v>374.4644606443996</v>
       </c>
       <c r="Y9" t="n">
-        <v>448.4506404996946</v>
+        <v>374.4644606443996</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.63101027343186</v>
+        <v>18.01319439374716</v>
       </c>
       <c r="C10" t="n">
-        <v>12.63101027343186</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="D10" t="n">
-        <v>12.63101027343186</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="E10" t="n">
-        <v>12.63101027343186</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="F10" t="n">
-        <v>12.63101027343186</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="G10" t="n">
-        <v>12.63101027343186</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="H10" t="n">
-        <v>12.63101027343186</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="I10" t="n">
-        <v>12.63101027343186</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="J10" t="n">
-        <v>12.63101027343186</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="K10" t="n">
-        <v>12.63101027343186</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="L10" t="n">
-        <v>8.969012809993892</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="M10" t="n">
-        <v>8.969012809993892</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="N10" t="n">
-        <v>12.63101027343186</v>
+        <v>18.01319439374716</v>
       </c>
       <c r="O10" t="n">
-        <v>12.63101027343186</v>
+        <v>18.01319439374716</v>
       </c>
       <c r="P10" t="n">
-        <v>12.63101027343186</v>
+        <v>18.01319439374716</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.63101027343186</v>
+        <v>18.01319439374716</v>
       </c>
       <c r="R10" t="n">
-        <v>12.63101027343186</v>
+        <v>18.01319439374716</v>
       </c>
       <c r="S10" t="n">
-        <v>12.63101027343186</v>
+        <v>18.01319439374716</v>
       </c>
       <c r="T10" t="n">
-        <v>12.63101027343186</v>
+        <v>18.01319439374716</v>
       </c>
       <c r="U10" t="n">
-        <v>12.63101027343186</v>
+        <v>18.01319439374716</v>
       </c>
       <c r="V10" t="n">
-        <v>12.63101027343186</v>
+        <v>18.01319439374716</v>
       </c>
       <c r="W10" t="n">
-        <v>12.63101027343186</v>
+        <v>18.01319439374716</v>
       </c>
       <c r="X10" t="n">
-        <v>12.63101027343186</v>
+        <v>18.01319439374716</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.63101027343186</v>
+        <v>18.01319439374716</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1331.212906458</v>
+        <v>613.5501790503097</v>
       </c>
       <c r="C11" t="n">
-        <v>1331.212906458</v>
+        <v>613.5501790503097</v>
       </c>
       <c r="D11" t="n">
-        <v>1331.212906458</v>
+        <v>613.5501790503097</v>
       </c>
       <c r="E11" t="n">
-        <v>949.3392845809428</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="F11" t="n">
-        <v>538.3533797913353</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="G11" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H11" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I11" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J11" t="n">
-        <v>152.5078184301906</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K11" t="n">
-        <v>366.8168396232725</v>
+        <v>366.8168396232728</v>
       </c>
       <c r="L11" t="n">
-        <v>669.5878927711876</v>
+        <v>669.5878927711882</v>
       </c>
       <c r="M11" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N11" t="n">
-        <v>1417.286540135168</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O11" t="n">
-        <v>1761.960612545598</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.630958172449</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q11" t="n">
-        <v>2168.459826904655</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R11" t="n">
-        <v>2168.459826904655</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S11" t="n">
-        <v>2168.459826904655</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T11" t="n">
-        <v>1958.28582905657</v>
+        <v>1958.285829056573</v>
       </c>
       <c r="U11" t="n">
-        <v>1704.67866471908</v>
+        <v>1704.678664719082</v>
       </c>
       <c r="V11" t="n">
-        <v>1704.67866471908</v>
+        <v>1373.615777375511</v>
       </c>
       <c r="W11" t="n">
-        <v>1704.67866471908</v>
+        <v>1373.615777375511</v>
       </c>
       <c r="X11" t="n">
-        <v>1331.212906458</v>
+        <v>1000.150019114431</v>
       </c>
       <c r="Y11" t="n">
-        <v>1331.212906458</v>
+        <v>1000.150019114431</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>767.0731087616919</v>
+        <v>730.4069798939659</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0731087616919</v>
+        <v>730.4069798939659</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1386991004406</v>
+        <v>581.4725702327146</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9012440949851</v>
+        <v>422.235115227259</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3666861218701</v>
+        <v>275.700557254144</v>
       </c>
       <c r="G12" t="n">
-        <v>175.490692336986</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H12" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I12" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J12" t="n">
-        <v>89.55356510562329</v>
+        <v>89.55356510562345</v>
       </c>
       <c r="K12" t="n">
-        <v>246.6448318504522</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L12" t="n">
-        <v>504.1959674104399</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M12" t="n">
-        <v>824.1028628789495</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N12" t="n">
-        <v>1166.885386873581</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O12" t="n">
-        <v>1458.244633128147</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P12" t="n">
-        <v>1672.753048689048</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q12" t="n">
-        <v>1766.227047333488</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R12" t="n">
-        <v>1766.227047333488</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="S12" t="n">
-        <v>1766.227047333488</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="T12" t="n">
-        <v>1766.227047333488</v>
+        <v>1571.516725807466</v>
       </c>
       <c r="U12" t="n">
-        <v>1672.074372692123</v>
+        <v>1571.516725807466</v>
       </c>
       <c r="V12" t="n">
-        <v>1436.92226446038</v>
+        <v>1336.364617575724</v>
       </c>
       <c r="W12" t="n">
-        <v>1182.684907732179</v>
+        <v>1082.127260847522</v>
       </c>
       <c r="X12" t="n">
-        <v>974.8334075266457</v>
+        <v>1082.127260847522</v>
       </c>
       <c r="Y12" t="n">
-        <v>767.0731087616919</v>
+        <v>898.6223169140339</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>520.2893470405998</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="C13" t="n">
-        <v>520.2893470405998</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="D13" t="n">
-        <v>520.2893470405998</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="E13" t="n">
-        <v>520.2893470405998</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="F13" t="n">
-        <v>490.1366584153656</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G13" t="n">
-        <v>322.0038290103839</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H13" t="n">
-        <v>171.9636155141766</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I13" t="n">
-        <v>61.70688273934481</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J13" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K13" t="n">
-        <v>92.71685897981536</v>
+        <v>92.71685897981551</v>
       </c>
       <c r="L13" t="n">
-        <v>185.7706748018944</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M13" t="n">
-        <v>287.1411594927335</v>
+        <v>287.141159492734</v>
       </c>
       <c r="N13" t="n">
-        <v>393.9588065377465</v>
+        <v>393.9588065377471</v>
       </c>
       <c r="O13" t="n">
-        <v>472.3091036033665</v>
+        <v>472.3091036033672</v>
       </c>
       <c r="P13" t="n">
-        <v>520.2893470405998</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.2893470405998</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="R13" t="n">
-        <v>520.2893470405998</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="S13" t="n">
-        <v>520.2893470405998</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="T13" t="n">
-        <v>520.2893470405998</v>
+        <v>298.0536847439801</v>
       </c>
       <c r="U13" t="n">
-        <v>520.2893470405998</v>
+        <v>298.0536847439801</v>
       </c>
       <c r="V13" t="n">
-        <v>520.2893470405998</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="W13" t="n">
-        <v>520.2893470405998</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="X13" t="n">
-        <v>520.2893470405998</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="Y13" t="n">
-        <v>520.2893470405998</v>
+        <v>43.36919653809315</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>470.9555216282778</v>
+        <v>1505.809865417729</v>
       </c>
       <c r="C14" t="n">
-        <v>122.3223344947425</v>
+        <v>1505.809865417729</v>
       </c>
       <c r="D14" t="n">
-        <v>122.3223344947425</v>
+        <v>1147.544166810978</v>
       </c>
       <c r="E14" t="n">
-        <v>122.3223344947425</v>
+        <v>761.7559142127341</v>
       </c>
       <c r="F14" t="n">
-        <v>122.3223344947425</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="G14" t="n">
-        <v>122.3223344947425</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H14" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I14" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J14" t="n">
-        <v>152.5078184301904</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K14" t="n">
-        <v>366.8168396232724</v>
+        <v>366.8168396232726</v>
       </c>
       <c r="L14" t="n">
-        <v>669.5878927711874</v>
+        <v>669.587892771188</v>
       </c>
       <c r="M14" t="n">
         <v>1038.148464578731</v>
       </c>
       <c r="N14" t="n">
-        <v>1417.286540135168</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O14" t="n">
-        <v>1761.960612545598</v>
+        <v>1761.960612545599</v>
       </c>
       <c r="P14" t="n">
-        <v>2021.630958172449</v>
+        <v>2021.63095817245</v>
       </c>
       <c r="Q14" t="n">
-        <v>2168.459826904655</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R14" t="n">
-        <v>2168.459826904655</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S14" t="n">
-        <v>2168.459826904655</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="T14" t="n">
-        <v>2168.459826904655</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="U14" t="n">
-        <v>1914.852662567164</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="V14" t="n">
-        <v>1583.789775223594</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="W14" t="n">
-        <v>1231.021119953479</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="X14" t="n">
-        <v>857.5553616923996</v>
+        <v>1895.949197393541</v>
       </c>
       <c r="Y14" t="n">
-        <v>857.5553616923996</v>
+        <v>1505.809865417729</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>270.19853499023</v>
+        <v>498.075619177915</v>
       </c>
       <c r="C15" t="n">
-        <v>95.74550570910296</v>
+        <v>498.075619177915</v>
       </c>
       <c r="D15" t="n">
-        <v>43.3691965380931</v>
+        <v>349.1412095166637</v>
       </c>
       <c r="E15" t="n">
-        <v>43.3691965380931</v>
+        <v>189.9037545112082</v>
       </c>
       <c r="F15" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="G15" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H15" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I15" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J15" t="n">
-        <v>89.55356510562335</v>
+        <v>89.55356510562342</v>
       </c>
       <c r="K15" t="n">
-        <v>246.6448318504523</v>
+        <v>246.6448318504524</v>
       </c>
       <c r="L15" t="n">
-        <v>504.1959674104402</v>
+        <v>504.1959674104403</v>
       </c>
       <c r="M15" t="n">
-        <v>824.1028628789497</v>
+        <v>824.1028628789501</v>
       </c>
       <c r="N15" t="n">
         <v>1166.885386873582</v>
@@ -5393,16 +5393,16 @@
         <v>1343.415135940729</v>
       </c>
       <c r="V15" t="n">
-        <v>1108.263027708986</v>
+        <v>1108.263027708987</v>
       </c>
       <c r="W15" t="n">
-        <v>854.0256709807848</v>
+        <v>854.025670980785</v>
       </c>
       <c r="X15" t="n">
-        <v>646.1741707752519</v>
+        <v>646.1741707752522</v>
       </c>
       <c r="Y15" t="n">
-        <v>438.413872010298</v>
+        <v>498.075619177915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.3691965380931</v>
+        <v>230.8721770036397</v>
       </c>
       <c r="C16" t="n">
-        <v>43.3691965380931</v>
+        <v>230.8721770036397</v>
       </c>
       <c r="D16" t="n">
-        <v>43.3691965380931</v>
+        <v>230.8721770036397</v>
       </c>
       <c r="E16" t="n">
-        <v>43.3691965380931</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="F16" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="G16" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H16" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I16" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J16" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="K16" t="n">
-        <v>92.71685897981541</v>
+        <v>92.71685897981547</v>
       </c>
       <c r="L16" t="n">
-        <v>185.7706748018945</v>
+        <v>185.7706748018946</v>
       </c>
       <c r="M16" t="n">
         <v>287.1411594927338</v>
       </c>
       <c r="N16" t="n">
-        <v>393.9588065377468</v>
+        <v>393.9588065377469</v>
       </c>
       <c r="O16" t="n">
-        <v>472.3091036033668</v>
+        <v>472.309103603367</v>
       </c>
       <c r="P16" t="n">
-        <v>520.2893470406002</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="Q16" t="n">
-        <v>497.4664265514533</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="R16" t="n">
-        <v>388.3019303235355</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="S16" t="n">
-        <v>189.122444707762</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="T16" t="n">
-        <v>43.3691965380931</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="U16" t="n">
-        <v>43.3691965380931</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="V16" t="n">
-        <v>43.3691965380931</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="W16" t="n">
-        <v>43.3691965380931</v>
+        <v>230.8721770036397</v>
       </c>
       <c r="X16" t="n">
-        <v>43.3691965380931</v>
+        <v>230.8721770036397</v>
       </c>
       <c r="Y16" t="n">
-        <v>43.3691965380931</v>
+        <v>230.8721770036397</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>685.7545054940365</v>
+        <v>868.0153638525621</v>
       </c>
       <c r="C17" t="n">
-        <v>316.7919885536248</v>
+        <v>736.5582620213708</v>
       </c>
       <c r="D17" t="n">
-        <v>316.7919885536248</v>
+        <v>736.5582620213708</v>
       </c>
       <c r="E17" t="n">
-        <v>316.7919885536248</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="F17" t="n">
-        <v>316.7919885536248</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="G17" t="n">
-        <v>316.7919885536248</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H17" t="n">
-        <v>43.77456182130328</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I17" t="n">
-        <v>43.77456182130328</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J17" t="n">
-        <v>154.3098974465493</v>
+        <v>152.5078184301904</v>
       </c>
       <c r="K17" t="n">
-        <v>370.7122304649367</v>
+        <v>366.8168396232725</v>
       </c>
       <c r="L17" t="n">
-        <v>676.0802220354365</v>
+        <v>669.5878927711879</v>
       </c>
       <c r="M17" t="n">
-        <v>1047.53038821457</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N17" t="n">
-        <v>1429.604814800508</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O17" t="n">
-        <v>1777.051600222983</v>
+        <v>1761.960612545599</v>
       </c>
       <c r="P17" t="n">
-        <v>2039.088392256632</v>
+        <v>2021.63095817245</v>
       </c>
       <c r="Q17" t="n">
-        <v>2187.694363687266</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R17" t="n">
-        <v>2188.728091065164</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S17" t="n">
-        <v>2188.728091065164</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="T17" t="n">
-        <v>2188.728091065164</v>
+        <v>1826.151173794703</v>
       </c>
       <c r="U17" t="n">
-        <v>2188.728091065164</v>
+        <v>1572.544009457213</v>
       </c>
       <c r="V17" t="n">
-        <v>2188.728091065164</v>
+        <v>1241.481122113642</v>
       </c>
       <c r="W17" t="n">
-        <v>1835.95943579505</v>
+        <v>1241.481122113642</v>
       </c>
       <c r="X17" t="n">
-        <v>1462.49367753397</v>
+        <v>868.0153638525621</v>
       </c>
       <c r="Y17" t="n">
-        <v>1072.354345558158</v>
+        <v>868.0153638525621</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>704.9890553101343</v>
+        <v>525.9940904859269</v>
       </c>
       <c r="C18" t="n">
-        <v>530.5360260290073</v>
+        <v>351.5410612047999</v>
       </c>
       <c r="D18" t="n">
-        <v>381.601616367756</v>
+        <v>202.6066515435487</v>
       </c>
       <c r="E18" t="n">
-        <v>222.3641613623005</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="F18" t="n">
-        <v>139.143165032939</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G18" t="n">
-        <v>139.143165032939</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H18" t="n">
-        <v>43.77456182130328</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I18" t="n">
-        <v>43.77456182130328</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J18" t="n">
-        <v>90.79080351984992</v>
+        <v>89.55356510562342</v>
       </c>
       <c r="K18" t="n">
-        <v>249.3038739443888</v>
+        <v>246.6448318504524</v>
       </c>
       <c r="L18" t="n">
-        <v>508.7668000132187</v>
+        <v>504.1959674104403</v>
       </c>
       <c r="M18" t="n">
-        <v>830.9046648322143</v>
+        <v>824.1028628789501</v>
       </c>
       <c r="N18" t="n">
-        <v>1175.977205297583</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O18" t="n">
-        <v>1469.431369231841</v>
+        <v>1458.244633128148</v>
       </c>
       <c r="P18" t="n">
-        <v>1685.6211409219</v>
+        <v>1672.753048689049</v>
       </c>
       <c r="Q18" t="n">
-        <v>1780.219081611979</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="R18" t="n">
-        <v>1748.788111277351</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="S18" t="n">
-        <v>1609.990319240565</v>
+        <v>1627.262386835207</v>
       </c>
       <c r="T18" t="n">
-        <v>1609.990319240565</v>
+        <v>1619.551982538208</v>
       </c>
       <c r="U18" t="n">
-        <v>1609.990319240565</v>
+        <v>1391.450392671472</v>
       </c>
       <c r="V18" t="n">
-        <v>1374.838211008823</v>
+        <v>1156.298284439729</v>
       </c>
       <c r="W18" t="n">
-        <v>1120.600854280621</v>
+        <v>902.0609277115277</v>
       </c>
       <c r="X18" t="n">
-        <v>912.7493540750881</v>
+        <v>694.2094275059949</v>
       </c>
       <c r="Y18" t="n">
-        <v>704.9890553101343</v>
+        <v>694.2094275059949</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1705.629943861065</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="C19" t="n">
-        <v>1705.629943861065</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="D19" t="n">
-        <v>1705.629943861065</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="E19" t="n">
-        <v>1705.629943861065</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="F19" t="n">
-        <v>1705.629943861065</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G19" t="n">
-        <v>1705.629943861065</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H19" t="n">
-        <v>1705.629943861065</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I19" t="n">
-        <v>1705.629943861065</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J19" t="n">
-        <v>1705.629943861065</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K19" t="n">
-        <v>1755.835232661614</v>
+        <v>92.71685897981548</v>
       </c>
       <c r="L19" t="n">
-        <v>1849.986514952571</v>
+        <v>185.7706748018946</v>
       </c>
       <c r="M19" t="n">
-        <v>1952.514124158689</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N19" t="n">
-        <v>2060.461381884307</v>
+        <v>393.9588065377469</v>
       </c>
       <c r="O19" t="n">
-        <v>2139.855057246253</v>
+        <v>472.309103603367</v>
       </c>
       <c r="P19" t="n">
-        <v>2188.728091065164</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="Q19" t="n">
-        <v>2188.728091065164</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="R19" t="n">
-        <v>2188.728091065164</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="S19" t="n">
-        <v>2188.728091065164</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="T19" t="n">
-        <v>2188.728091065164</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="U19" t="n">
-        <v>1899.602180855924</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="V19" t="n">
-        <v>1705.629943861065</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="W19" t="n">
-        <v>1705.629943861065</v>
+        <v>271.3587474361105</v>
       </c>
       <c r="X19" t="n">
-        <v>1705.629943861065</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="Y19" t="n">
-        <v>1705.629943861065</v>
+        <v>43.36919653809315</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1983.791189553144</v>
+        <v>1404.854736667766</v>
       </c>
       <c r="C20" t="n">
-        <v>1614.828672612733</v>
+        <v>1404.854736667766</v>
       </c>
       <c r="D20" t="n">
-        <v>1256.562974005982</v>
+        <v>1046.589038061015</v>
       </c>
       <c r="E20" t="n">
-        <v>870.7747214077381</v>
+        <v>1046.589038061015</v>
       </c>
       <c r="F20" t="n">
-        <v>459.7888166181305</v>
+        <v>635.6031332714078</v>
       </c>
       <c r="G20" t="n">
-        <v>43.77456182130329</v>
+        <v>219.5720879748151</v>
       </c>
       <c r="H20" t="n">
-        <v>43.77456182130329</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I20" t="n">
-        <v>43.77456182130329</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J20" t="n">
-        <v>154.3098974465502</v>
+        <v>152.507818430191</v>
       </c>
       <c r="K20" t="n">
-        <v>370.7122304649379</v>
+        <v>366.8168396232732</v>
       </c>
       <c r="L20" t="n">
-        <v>676.0802220354381</v>
+        <v>669.5878927711885</v>
       </c>
       <c r="M20" t="n">
-        <v>1047.530388214572</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N20" t="n">
-        <v>1429.604814800509</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O20" t="n">
-        <v>1777.051600222984</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P20" t="n">
-        <v>2039.088392256633</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q20" t="n">
-        <v>2187.694363687266</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R20" t="n">
-        <v>2188.728091065164</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S20" t="n">
-        <v>2188.728091065164</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T20" t="n">
-        <v>2188.728091065164</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="U20" t="n">
-        <v>2188.728091065164</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="V20" t="n">
-        <v>2188.728091065164</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="W20" t="n">
-        <v>2188.728091065164</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="X20" t="n">
-        <v>2188.728091065164</v>
+        <v>1794.994068643578</v>
       </c>
       <c r="Y20" t="n">
-        <v>2188.728091065164</v>
+        <v>1404.854736667766</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>218.2275911024303</v>
+        <v>366.7566354804715</v>
       </c>
       <c r="C21" t="n">
-        <v>43.77456182130329</v>
+        <v>192.3036061993444</v>
       </c>
       <c r="D21" t="n">
-        <v>43.77456182130329</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="E21" t="n">
-        <v>43.77456182130329</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="F21" t="n">
-        <v>43.77456182130329</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G21" t="n">
-        <v>43.77456182130329</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H21" t="n">
-        <v>43.77456182130329</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I21" t="n">
-        <v>43.77456182130329</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J21" t="n">
-        <v>90.79080351984993</v>
+        <v>89.55356510562342</v>
       </c>
       <c r="K21" t="n">
-        <v>249.3038739443888</v>
+        <v>246.6448318504524</v>
       </c>
       <c r="L21" t="n">
-        <v>508.7668000132187</v>
+        <v>504.1959674104403</v>
       </c>
       <c r="M21" t="n">
-        <v>830.9046648322143</v>
+        <v>824.1028628789501</v>
       </c>
       <c r="N21" t="n">
-        <v>1175.977205297583</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O21" t="n">
-        <v>1469.431369231841</v>
+        <v>1458.244633128148</v>
       </c>
       <c r="P21" t="n">
-        <v>1685.6211409219</v>
+        <v>1672.753048689049</v>
       </c>
       <c r="Q21" t="n">
-        <v>1780.219081611979</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="R21" t="n">
-        <v>1780.219081611979</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="S21" t="n">
-        <v>1714.219301759022</v>
+        <v>1627.262386835207</v>
       </c>
       <c r="T21" t="n">
-        <v>1519.545190886153</v>
+        <v>1432.552065309183</v>
       </c>
       <c r="U21" t="n">
-        <v>1291.444192052929</v>
+        <v>1204.450475442447</v>
       </c>
       <c r="V21" t="n">
-        <v>1056.292083821187</v>
+        <v>969.2983672107046</v>
       </c>
       <c r="W21" t="n">
-        <v>802.0547270929851</v>
+        <v>715.061010482503</v>
       </c>
       <c r="X21" t="n">
-        <v>594.2032268874523</v>
+        <v>574.5169342454253</v>
       </c>
       <c r="Y21" t="n">
-        <v>386.4429281224983</v>
+        <v>366.7566354804715</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>212.7107447492102</v>
+        <v>231.1630260146238</v>
       </c>
       <c r="C22" t="n">
-        <v>43.77456182130329</v>
+        <v>231.1630260146238</v>
       </c>
       <c r="D22" t="n">
-        <v>43.77456182130329</v>
+        <v>191.2822901204863</v>
       </c>
       <c r="E22" t="n">
-        <v>43.77456182130329</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="F22" t="n">
-        <v>43.77456182130329</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G22" t="n">
-        <v>43.77456182130329</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H22" t="n">
-        <v>43.77456182130329</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I22" t="n">
-        <v>43.77456182130329</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J22" t="n">
-        <v>43.77456182130329</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K22" t="n">
-        <v>93.97985062185278</v>
+        <v>92.71685897981548</v>
       </c>
       <c r="L22" t="n">
-        <v>188.1311329128098</v>
+        <v>185.7706748018946</v>
       </c>
       <c r="M22" t="n">
-        <v>290.6587421189274</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N22" t="n">
-        <v>398.6059998445459</v>
+        <v>393.9588065377469</v>
       </c>
       <c r="O22" t="n">
-        <v>477.9996752064918</v>
+        <v>472.309103603367</v>
       </c>
       <c r="P22" t="n">
-        <v>526.8727090254025</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="Q22" t="n">
-        <v>526.8727090254025</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="R22" t="n">
-        <v>526.8727090254025</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="S22" t="n">
-        <v>526.8727090254025</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="T22" t="n">
-        <v>526.8727090254025</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="U22" t="n">
-        <v>526.8727090254025</v>
+        <v>231.1630260146238</v>
       </c>
       <c r="V22" t="n">
-        <v>526.8727090254025</v>
+        <v>231.1630260146238</v>
       </c>
       <c r="W22" t="n">
-        <v>237.4555389884419</v>
+        <v>231.1630260146238</v>
       </c>
       <c r="X22" t="n">
-        <v>237.4555389884419</v>
+        <v>231.1630260146238</v>
       </c>
       <c r="Y22" t="n">
-        <v>237.4555389884419</v>
+        <v>231.1630260146238</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1636.624422581789</v>
+        <v>1533.918936517076</v>
       </c>
       <c r="C23" t="n">
-        <v>1636.624422581789</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
         <v>66.51211643218342</v>
@@ -5989,7 +5989,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810553</v>
@@ -5998,7 +5998,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6025,16 +6025,16 @@
         <v>3072.075344883007</v>
       </c>
       <c r="V23" t="n">
-        <v>3072.075344883007</v>
+        <v>3036.892522088203</v>
       </c>
       <c r="W23" t="n">
-        <v>2719.306689612893</v>
+        <v>2684.123866818089</v>
       </c>
       <c r="X23" t="n">
-        <v>2345.840931351813</v>
+        <v>2310.658108557009</v>
       </c>
       <c r="Y23" t="n">
-        <v>1955.701599376001</v>
+        <v>1920.518776581197</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
@@ -6074,7 +6074,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>410.0175235133545</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C25" t="n">
-        <v>410.0175235133545</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D25" t="n">
-        <v>410.0175235133545</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E25" t="n">
-        <v>410.0175235133545</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F25" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
         <v>66.51211643218342</v>
@@ -6177,22 +6177,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>699.1203903877109</v>
+        <v>882.8293338103399</v>
       </c>
       <c r="U25" t="n">
-        <v>410.0175235133545</v>
+        <v>882.8293338103399</v>
       </c>
       <c r="V25" t="n">
-        <v>410.0175235133545</v>
+        <v>882.8293338103399</v>
       </c>
       <c r="W25" t="n">
-        <v>410.0175235133545</v>
+        <v>882.8293338103399</v>
       </c>
       <c r="X25" t="n">
-        <v>410.0175235133545</v>
+        <v>882.8293338103399</v>
       </c>
       <c r="Y25" t="n">
-        <v>410.0175235133545</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1678.62132134232</v>
+        <v>1934.181533884357</v>
       </c>
       <c r="C26" t="n">
-        <v>1678.62132134232</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D26" t="n">
-        <v>1320.35562273557</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E26" t="n">
-        <v>934.5673701373257</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F26" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
         <v>108.5090151927147</v>
@@ -6226,25 +6226,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
         <v>3266.588755052369</v>
@@ -6253,25 +6253,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3039.953857451988</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U26" t="n">
-        <v>2786.423380725825</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V26" t="n">
-        <v>2455.360493382254</v>
+        <v>2673.550029218593</v>
       </c>
       <c r="W26" t="n">
-        <v>2455.360493382254</v>
+        <v>2320.781373948479</v>
       </c>
       <c r="X26" t="n">
-        <v>2455.360493382254</v>
+        <v>2320.781373948479</v>
       </c>
       <c r="Y26" t="n">
-        <v>2065.221161406442</v>
+        <v>2320.781373948479</v>
       </c>
     </row>
     <row r="27">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2533.219997888695</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C28" t="n">
-        <v>2533.219997888695</v>
+        <v>751.9508228902781</v>
       </c>
       <c r="D28" t="n">
-        <v>2533.219997888695</v>
+        <v>601.8341834779424</v>
       </c>
       <c r="E28" t="n">
-        <v>2533.219997888695</v>
+        <v>453.9210898955492</v>
       </c>
       <c r="F28" t="n">
-        <v>2533.219997888695</v>
+        <v>307.0311423976389</v>
       </c>
       <c r="G28" t="n">
-        <v>2471.23093222317</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H28" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K28" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L28" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M28" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N28" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O28" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P28" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R28" t="n">
-        <v>3235.775364366699</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S28" t="n">
-        <v>3044.089480193526</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T28" t="n">
-        <v>2822.322864763052</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U28" t="n">
-        <v>2533.219997888695</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V28" t="n">
-        <v>2533.219997888695</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W28" t="n">
-        <v>2533.219997888695</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X28" t="n">
-        <v>2533.219997888695</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y28" t="n">
-        <v>2533.219997888695</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1934.208022973022</v>
+        <v>1590.807527238423</v>
       </c>
       <c r="C29" t="n">
-        <v>1934.208022973022</v>
+        <v>1221.845010298012</v>
       </c>
       <c r="D29" t="n">
-        <v>1575.942324366272</v>
+        <v>863.5793116912612</v>
       </c>
       <c r="E29" t="n">
-        <v>1190.154071768027</v>
+        <v>477.7910590930169</v>
       </c>
       <c r="F29" t="n">
-        <v>779.1681669784198</v>
+        <v>66.80515430340938</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
         <v>66.51211643218342</v>
@@ -6463,13 +6463,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001389</v>
@@ -6490,25 +6490,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V29" t="n">
-        <v>2673.576518307258</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W29" t="n">
-        <v>2320.807863037144</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="X29" t="n">
-        <v>2320.807863037144</v>
+        <v>2367.546699278357</v>
       </c>
       <c r="Y29" t="n">
-        <v>2320.807863037144</v>
+        <v>1977.407367302545</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I30" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>533.4780323548191</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="C31" t="n">
-        <v>364.5418494269122</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="D31" t="n">
-        <v>214.4252100145765</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218342</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218342</v>
+        <v>195.4770214089575</v>
       </c>
       <c r="G31" t="n">
         <v>66.51211643218342</v>
@@ -6654,19 +6654,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U31" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V31" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W31" t="n">
-        <v>920.8870058181849</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="X31" t="n">
-        <v>920.8870058181849</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="Y31" t="n">
-        <v>715.1264971850588</v>
+        <v>342.3669689068678</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2345.167438673965</v>
+        <v>1888.09808975843</v>
       </c>
       <c r="C32" t="n">
-        <v>1976.204921733553</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218343</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W32" t="n">
-        <v>2345.167438673965</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X32" t="n">
-        <v>2345.167438673965</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y32" t="n">
-        <v>2345.167438673965</v>
+        <v>2274.697929822552</v>
       </c>
     </row>
     <row r="33">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2471.23093222317</v>
+        <v>518.4459618444151</v>
       </c>
       <c r="C34" t="n">
-        <v>2471.23093222317</v>
+        <v>349.5097789165083</v>
       </c>
       <c r="D34" t="n">
-        <v>2471.23093222317</v>
+        <v>349.5097789165083</v>
       </c>
       <c r="E34" t="n">
-        <v>2471.23093222317</v>
+        <v>349.5097789165083</v>
       </c>
       <c r="F34" t="n">
-        <v>2471.23093222317</v>
+        <v>202.6198314185979</v>
       </c>
       <c r="G34" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S34" t="n">
-        <v>3236.784902733888</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T34" t="n">
-        <v>3015.018287303414</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U34" t="n">
-        <v>2725.915420429057</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V34" t="n">
-        <v>2471.23093222317</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W34" t="n">
-        <v>2471.23093222317</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X34" t="n">
-        <v>2471.23093222317</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y34" t="n">
-        <v>2471.23093222317</v>
+        <v>700.0944266746549</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2126.729101932993</v>
+        <v>1979.067756754391</v>
       </c>
       <c r="C35" t="n">
-        <v>1757.766584992581</v>
+        <v>1610.105239813979</v>
       </c>
       <c r="D35" t="n">
-        <v>1399.500886385831</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E35" t="n">
-        <v>1013.712633787586</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>602.7267289979789</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>187.6542788429753</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6946,7 +6946,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6964,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U35" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W35" t="n">
-        <v>2513.328941997115</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X35" t="n">
-        <v>2513.328941997115</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y35" t="n">
-        <v>2513.328941997115</v>
+        <v>2365.667596818512</v>
       </c>
     </row>
     <row r="36">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2471.230932223169</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C37" t="n">
-        <v>2471.230932223169</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D37" t="n">
-        <v>2471.230932223169</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E37" t="n">
-        <v>2471.230932223169</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>2471.230932223169</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K37" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L37" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N37" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O37" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P37" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V37" t="n">
-        <v>3070.921333403284</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W37" t="n">
-        <v>2781.504163366323</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X37" t="n">
-        <v>2553.514612468306</v>
+        <v>881.8061877258572</v>
       </c>
       <c r="Y37" t="n">
-        <v>2471.230932223169</v>
+        <v>881.8061877258572</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1179.52858457759</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C38" t="n">
-        <v>810.5660676371781</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D38" t="n">
-        <v>452.3003690304276</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E38" t="n">
-        <v>66.51211643218342</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218342</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
@@ -7204,22 +7204,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3155.385897666236</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>3155.385897666236</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450754</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="W38" t="n">
-        <v>2329.733514878603</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="X38" t="n">
-        <v>1956.267756617523</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y38" t="n">
-        <v>1566.128424641711</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
         <v>85.51940803064545</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>532.4548862703364</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="C40" t="n">
-        <v>363.5187033424295</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="D40" t="n">
-        <v>213.4020639300938</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="E40" t="n">
-        <v>213.4020639300938</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218342</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="G40" t="n">
         <v>66.51211643218342</v>
@@ -7362,22 +7362,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>760.4444371683537</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U40" t="n">
-        <v>760.4444371683537</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V40" t="n">
-        <v>760.4444371683537</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="W40" t="n">
-        <v>760.4444371683537</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="X40" t="n">
-        <v>532.4548862703364</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="Y40" t="n">
-        <v>532.4548862703364</v>
+        <v>120.6003534763939</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2345.167438673965</v>
+        <v>1811.579746109089</v>
       </c>
       <c r="C41" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
         <v>66.51211643218342</v>
@@ -7438,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V41" t="n">
-        <v>2994.5429342656</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W41" t="n">
-        <v>2994.5429342656</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X41" t="n">
-        <v>2994.5429342656</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y41" t="n">
-        <v>2731.767278738087</v>
+        <v>2198.179586173211</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7496,40 +7496,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3085.086795643716</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C43" t="n">
-        <v>2916.150612715809</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D43" t="n">
-        <v>2766.033973303473</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>2618.12087972108</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>2471.23093222317</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K43" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N43" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O43" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P43" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q43" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>3325.605821609171</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T43" t="n">
-        <v>3325.605821609171</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="U43" t="n">
-        <v>3325.605821609171</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="V43" t="n">
-        <v>3266.735260473956</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="W43" t="n">
-        <v>3266.735260473956</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="X43" t="n">
-        <v>3266.735260473956</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="Y43" t="n">
-        <v>3266.735260473956</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1822.632236038043</v>
+        <v>1548.393281286113</v>
       </c>
       <c r="C44" t="n">
-        <v>1453.669719097632</v>
+        <v>1179.430764345701</v>
       </c>
       <c r="D44" t="n">
-        <v>1095.404020490881</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="E44" t="n">
-        <v>709.615767892637</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W44" t="n">
-        <v>2972.837166339057</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X44" t="n">
-        <v>2599.371408077977</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.232076102165</v>
+        <v>1548.393281286113</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.51211643218342</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218342</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218342</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G46" t="n">
         <v>66.51211643218342</v>
@@ -7836,22 +7836,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T46" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U46" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V46" t="n">
-        <v>666.202517612298</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W46" t="n">
-        <v>666.202517612298</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X46" t="n">
-        <v>438.2129667142807</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="Y46" t="n">
-        <v>217.4203875707506</v>
+        <v>699.1203903877109</v>
       </c>
     </row>
   </sheetData>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>290.0688923743784</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22558,7 +22558,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>325.2567584078701</v>
       </c>
       <c r="G2" t="n">
         <v>413.4631744246258</v>
@@ -22567,10 +22567,10 @@
         <v>320.6353766150897</v>
       </c>
       <c r="I2" t="n">
-        <v>82.8521328632888</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>24.91528667358025</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>23.65357118422324</v>
+        <v>23.65357118422313</v>
       </c>
       <c r="R2" t="n">
-        <v>100.0310828299331</v>
+        <v>100.031082829933</v>
       </c>
       <c r="S2" t="n">
-        <v>167.1010256612668</v>
+        <v>167.1010256612667</v>
       </c>
       <c r="T2" t="n">
-        <v>122.3782128463251</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U2" t="n">
         <v>251.1984878605957</v>
       </c>
       <c r="V2" t="n">
-        <v>235.0873091810327</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>256.5760194283106</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>277.0661513893666</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>293.5729893669511</v>
       </c>
     </row>
     <row r="3">
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>84.91389631602596</v>
       </c>
       <c r="C3" t="n">
-        <v>171.0666714611472</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>64.98013116629875</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>43.69431484884211</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H3" t="n">
-        <v>10.06468283495377</v>
+        <v>102.729632124056</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>65.63472101604998</v>
       </c>
       <c r="J3" t="n">
-        <v>33.84730027516773</v>
+        <v>33.84730027516765</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22670,10 +22670,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>14.34273879062262</v>
       </c>
       <c r="R3" t="n">
-        <v>84.56947841277972</v>
+        <v>84.56947841277967</v>
       </c>
       <c r="S3" t="n">
         <v>153.4011028494393</v>
@@ -22685,13 +22685,13 @@
         <v>225.8766285924705</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>140.1356378603228</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>159.0300338718172</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>113.108035914375</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22725,31 +22725,31 @@
         <v>154.8907084131551</v>
       </c>
       <c r="I4" t="n">
-        <v>130.6355227555885</v>
+        <v>130.6355227555884</v>
       </c>
       <c r="J4" t="n">
-        <v>68.65627904547948</v>
+        <v>68.65627904547944</v>
       </c>
       <c r="K4" t="n">
-        <v>33.14412614092828</v>
+        <v>33.14412614092821</v>
       </c>
       <c r="L4" t="n">
-        <v>12.20519387026839</v>
+        <v>12.20519387026832</v>
       </c>
       <c r="M4" t="n">
-        <v>9.577470677924651</v>
+        <v>9.577470677924566</v>
       </c>
       <c r="N4" t="n">
-        <v>1.412844977410202</v>
+        <v>1.412844977410117</v>
       </c>
       <c r="O4" t="n">
-        <v>21.823262646183</v>
+        <v>21.82326264618293</v>
       </c>
       <c r="P4" t="n">
-        <v>37.92808757638606</v>
+        <v>37.92808757638599</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.40871249605685</v>
+        <v>82.40871249605681</v>
       </c>
       <c r="R4" t="n">
         <v>140.1909870721275</v>
@@ -22792,22 +22792,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>283.181539034229</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>294.7633856167878</v>
+        <v>302.7996371901262</v>
       </c>
       <c r="G5" t="n">
-        <v>301.2760442195641</v>
+        <v>309.3430685817274</v>
       </c>
       <c r="H5" t="n">
-        <v>207.7600497819524</v>
+        <v>320.1878617304278</v>
       </c>
       <c r="I5" t="n">
-        <v>136.685125759028</v>
+        <v>137.8714937001949</v>
       </c>
       <c r="J5" t="n">
-        <v>18.59473170946464</v>
+        <v>21.20653369498103</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.61164031771682</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>95.3531516584621</v>
+        <v>97.28618285447611</v>
       </c>
       <c r="S5" t="n">
-        <v>165.4040387101212</v>
+        <v>93.36952830014721</v>
       </c>
       <c r="T5" t="n">
-        <v>214.717169359623</v>
+        <v>214.8518772427035</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1925302541847</v>
+        <v>147.1185835257055</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22874,19 +22874,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>40.99280384179868</v>
       </c>
       <c r="G6" t="n">
-        <v>24.20675900740719</v>
+        <v>136.3358840258987</v>
       </c>
       <c r="H6" t="n">
-        <v>102.3448132540521</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>64.26286446312977</v>
+        <v>64.82974786009459</v>
       </c>
       <c r="J6" t="n">
-        <v>13.42958288945695</v>
+        <v>21.51317324671012</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.256558775821418</v>
+        <v>11.35828799687414</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>40.54833922112496</v>
+        <v>48.89041897104251</v>
       </c>
       <c r="T6" t="n">
-        <v>83.92423484016754</v>
+        <v>196.1032600404811</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8740072105222</v>
+        <v>225.8750904272043</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22956,52 +22956,52 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.1324099710516</v>
+        <v>167.1462135847273</v>
       </c>
       <c r="H7" t="n">
-        <v>154.5937101357652</v>
+        <v>154.7164368100819</v>
       </c>
       <c r="I7" t="n">
-        <v>129.630951895051</v>
+        <v>130.0460642044984</v>
       </c>
       <c r="J7" t="n">
-        <v>66.29456574971167</v>
+        <v>67.27048123658376</v>
       </c>
       <c r="K7" t="n">
-        <v>29.26310570632462</v>
+        <v>30.86683464064703</v>
       </c>
       <c r="L7" t="n">
-        <v>7.238823902544752</v>
+        <v>9.291044793930411</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7157523946084789</v>
+        <v>6.504909070776819</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>17.10165812996878</v>
+        <v>19.05273617933067</v>
       </c>
       <c r="P7" t="n">
-        <v>33.88793923037925</v>
+        <v>35.55742356075682</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.61152319847201</v>
+        <v>80.76738761271643</v>
       </c>
       <c r="R7" t="n">
-        <v>138.6889896488451</v>
+        <v>139.3096503146634</v>
       </c>
       <c r="S7" t="n">
-        <v>209.0540751673406</v>
+        <v>209.294634507489</v>
       </c>
       <c r="T7" t="n">
-        <v>224.2771565911783</v>
+        <v>224.3361356677926</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2721982989959</v>
+        <v>286.2729512233782</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>250.5825598354419</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23035,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.3887043444878</v>
+        <v>413.3269657558448</v>
       </c>
       <c r="H8" t="n">
-        <v>319.8727099068761</v>
+        <v>319.2404295859353</v>
       </c>
       <c r="I8" t="n">
-        <v>136.685125759028</v>
+        <v>134.3049488203661</v>
       </c>
       <c r="J8" t="n">
-        <v>18.59473170946464</v>
+        <v>13.35474617162012</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,25 +23065,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>8.944567303387799</v>
       </c>
       <c r="R8" t="n">
-        <v>12.21596093814617</v>
+        <v>91.47496503961203</v>
       </c>
       <c r="S8" t="n">
-        <v>53.29137858519758</v>
+        <v>163.9971706214174</v>
       </c>
       <c r="T8" t="n">
-        <v>214.717169359623</v>
+        <v>87.50105259034871</v>
       </c>
       <c r="U8" t="n">
-        <v>139.0798701292611</v>
+        <v>124.241735069604</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>215.9383484194664</v>
       </c>
       <c r="W8" t="n">
-        <v>237.1283085924894</v>
+        <v>222.2951126199237</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>39.58732755237804</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>167.9602904137953</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>45.53242033047729</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>32.95655226846023</v>
+        <v>18.12335629589458</v>
       </c>
       <c r="G9" t="n">
-        <v>24.20675900740719</v>
+        <v>136.2863860752092</v>
       </c>
       <c r="H9" t="n">
-        <v>33.67880325469606</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>64.26286446312977</v>
+        <v>63.12554210170563</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>26.96192154983116</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23144,25 +23144,25 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.256558775821418</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.095592888813</v>
+        <v>80.04464571068304</v>
       </c>
       <c r="S9" t="n">
-        <v>152.6609993460486</v>
+        <v>152.0474247981975</v>
       </c>
       <c r="T9" t="n">
-        <v>196.0368949650912</v>
+        <v>195.9037485637984</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8740072105222</v>
+        <v>225.87183398308</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>124.7491270634303</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23181,7 +23181,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>159.4678704517393</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23193,49 +23193,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.1324099710516</v>
+        <v>167.1047161656132</v>
       </c>
       <c r="H10" t="n">
-        <v>154.5937101357652</v>
+        <v>154.3474870292306</v>
       </c>
       <c r="I10" t="n">
-        <v>129.630951895051</v>
+        <v>128.7981236369563</v>
       </c>
       <c r="J10" t="n">
-        <v>66.29456574971167</v>
+        <v>64.3366137052127</v>
       </c>
       <c r="K10" t="n">
-        <v>29.26310570632462</v>
+        <v>26.04558903811107</v>
       </c>
       <c r="L10" t="n">
-        <v>3.613446413741165</v>
+        <v>3.12151031944893</v>
       </c>
       <c r="M10" t="n">
-        <v>4.341129883412066</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>17.10165812996878</v>
+        <v>13.18726461217658</v>
       </c>
       <c r="P10" t="n">
-        <v>33.88793923037925</v>
+        <v>30.5384993435316</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.61152319847201</v>
+        <v>77.2925446358026</v>
       </c>
       <c r="R10" t="n">
-        <v>138.6889896488451</v>
+        <v>137.4437754515849</v>
       </c>
       <c r="S10" t="n">
-        <v>209.0540751673406</v>
+        <v>208.5714476671086</v>
       </c>
       <c r="T10" t="n">
-        <v>224.2771565911783</v>
+        <v>224.1588285133958</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2721982989959</v>
+        <v>286.2706877277902</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,10 +23266,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>3.875484413975528</v>
+        <v>229.3219322287943</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>31.66886087721426</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S12" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T12" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>132.6094260731168</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23402,10 +23402,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>24.01280128315125</v>
       </c>
     </row>
     <row r="13">
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>115.5698862839494</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.59469128425548</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R13" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S13" t="n">
-        <v>197.1876907596159</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T13" t="n">
-        <v>221.3678187343026</v>
+        <v>1.35451306064823</v>
       </c>
       <c r="U13" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>20.1260365088076</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>411.8707348436268</v>
       </c>
       <c r="H14" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>78.16360657708287</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>208.0722578696039</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>230.7588861717142</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,19 +23573,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>95.592519485339</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>135.5072338470352</v>
@@ -23594,7 +23594,7 @@
         <v>94.50081326185511</v>
       </c>
       <c r="I15" t="n">
-        <v>36.2994675790488</v>
+        <v>36.29946757904879</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>31.66886087721423</v>
+        <v>31.66886087721421</v>
       </c>
       <c r="S15" t="n">
         <v>137.5750138932992</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>59.06512969594056</v>
       </c>
     </row>
     <row r="16">
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>106.2270600086093</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4515011109318</v>
@@ -23676,7 +23676,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J16" t="n">
-        <v>18.15430933923916</v>
+        <v>18.15430933923915</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>22.59469128425542</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T16" t="n">
-        <v>77.07210304633043</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U16" t="n">
         <v>286.2350578157167</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>235.1303609581281</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.8541122488589</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H17" t="n">
-        <v>33.86931614251876</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>77.52276399229643</v>
+        <v>78.16360657708287</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>130.4345213309786</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>207.9994924610077</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0697628865344</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23822,16 +23822,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>62.680426027316</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.4983399747498</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I18" t="n">
-        <v>35.99325311658944</v>
+        <v>36.29946757904879</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>31.66886087721421</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>192.7273697641395</v>
+        <v>185.1299180567345</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8199888448919</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4440447871722</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H19" t="n">
-        <v>148.4735178645464</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I19" t="n">
-        <v>108.9299334562044</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J19" t="n">
-        <v>17.62714724943667</v>
+        <v>18.15430933923915</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,28 +23934,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>21.97032584653257</v>
+        <v>22.59469128425542</v>
       </c>
       <c r="R19" t="n">
-        <v>107.7375878355031</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S19" t="n">
-        <v>197.0577473719148</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T19" t="n">
-        <v>221.3359598964208</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V19" t="n">
-        <v>60.10512869891781</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>40.08170472814609</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>179.8463091665809</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>304.156568607517</v>
+        <v>129.8859422338283</v>
       </c>
       <c r="I20" t="n">
-        <v>77.52276399229643</v>
+        <v>78.16360657708287</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>130.4345213309786</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T20" t="n">
-        <v>207.9994924610077</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0697628865344</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24062,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.4983399747498</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H21" t="n">
-        <v>94.41491717951939</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I21" t="n">
-        <v>35.99325311658944</v>
+        <v>36.29946757904879</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>31.11666063128115</v>
+        <v>31.66886087721421</v>
       </c>
       <c r="S21" t="n">
-        <v>72.07003206199074</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>66.63434972877059</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>155.3346338850979</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>109.1335444830162</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4440447871722</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H22" t="n">
-        <v>148.4735178645464</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I22" t="n">
-        <v>108.9299334562044</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J22" t="n">
-        <v>17.62714724943667</v>
+        <v>18.15430933923915</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>21.97032584653257</v>
+        <v>22.59469128425542</v>
       </c>
       <c r="R22" t="n">
-        <v>107.7375878355031</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S22" t="n">
-        <v>197.0577473719148</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T22" t="n">
-        <v>221.3359598964208</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U22" t="n">
-        <v>286.234651107148</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>66.84743663721099</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>292.9212639032794</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>116.1315181859209</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24417,10 +24417,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>181.8718539884027</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>30.31028741218489</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>137.1301661019847</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24603,22 +24603,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>104.6566332501587</v>
+        <v>72.66698746754815</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.6316181609398</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>246.3441520879392</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>38.35055233202192</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24894,19 +24894,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>14.88174980530002</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>270.4601319683919</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>383.0152867219265</v>
       </c>
     </row>
     <row r="33">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>31.2791704224779</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,16 +25125,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>101.8363156449108</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>26.25399094013238</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>174.6770236006365</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25371,16 +25371,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>187.0196454776327</v>
       </c>
       <c r="Y37" t="n">
-        <v>137.1238099094096</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>144.5880072242908</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>255.1805474109841</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>112.4784535852599</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25602,19 +25602,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>60.71080631283635</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>192.0671214789809</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>126.0900396838155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25836,16 +25836,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>169.9831260622107</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>193.855787799965</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>181.1251564493159</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>237.6227554889416</v>
       </c>
     </row>
     <row r="45">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>30.43279175475581</v>
+        <v>33.25638097019038</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26076,22 +26076,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355774.7999316615</v>
+        <v>355774.7999316617</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>372223.8826140433</v>
+        <v>365427.0972111498</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>372223.8826140434</v>
+        <v>385066.2728656447</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>671458.5347830962</v>
+        <v>671458.5347830965</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>674682.5429464116</v>
+        <v>671458.5347830964</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>674682.5429464116</v>
+        <v>671458.5347830965</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>855506.5411587493</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>123152.8153609596</v>
+        <v>123152.8153609597</v>
       </c>
       <c r="C2" t="n">
-        <v>128846.7285971687</v>
+        <v>126493.9951884747</v>
       </c>
       <c r="D2" t="n">
-        <v>128846.7285971687</v>
+        <v>133292.1713765692</v>
       </c>
       <c r="E2" t="n">
-        <v>232427.9543479946</v>
+        <v>232427.9543479947</v>
       </c>
       <c r="F2" t="n">
+        <v>232427.9543479948</v>
+      </c>
+      <c r="G2" t="n">
         <v>232427.9543479947</v>
       </c>
-      <c r="G2" t="n">
-        <v>233543.9571737577</v>
-      </c>
       <c r="H2" t="n">
-        <v>233543.9571737577</v>
+        <v>232427.9543479948</v>
       </c>
       <c r="I2" t="n">
         <v>296136.8796318746</v>
@@ -26340,10 +26340,10 @@
         <v>296136.8796318747</v>
       </c>
       <c r="K2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318744</v>
       </c>
       <c r="L2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318747</v>
       </c>
       <c r="M2" t="n">
         <v>296136.8796318746</v>
@@ -26352,10 +26352,10 @@
         <v>296136.8796318746</v>
       </c>
       <c r="O2" t="n">
-        <v>296136.8796318745</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="P2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318747</v>
       </c>
     </row>
     <row r="3">
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>471995.0992489056</v>
+        <v>471995.099248906</v>
       </c>
       <c r="C3" t="n">
-        <v>23151.37050443033</v>
+        <v>13584.67963722122</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>26811.91114834102</v>
       </c>
       <c r="E3" t="n">
-        <v>431750.1118760442</v>
+        <v>414983.0052652112</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4603.614815997921</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>250165.8687255904</v>
+        <v>254625.8275892816</v>
       </c>
       <c r="J3" t="n">
-        <v>24245.22799179791</v>
+        <v>24245.22799179798</v>
       </c>
       <c r="K3" t="n">
-        <v>5005.218442393667</v>
+        <v>2936.944447466627</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5788.051348840442</v>
       </c>
       <c r="M3" t="n">
-        <v>107158.2923222154</v>
+        <v>103461.8005530683</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1219.394509622651</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.14558386063672</v>
+        <v>67.14558386063692</v>
       </c>
       <c r="C4" t="n">
-        <v>81.37067654131212</v>
+        <v>75.47151608995144</v>
       </c>
       <c r="D4" t="n">
-        <v>81.37067654131212</v>
+        <v>92.27146491182731</v>
       </c>
       <c r="E4" t="n">
-        <v>384.3219252469139</v>
+        <v>384.3219252469144</v>
       </c>
       <c r="F4" t="n">
-        <v>384.3219252469141</v>
+        <v>384.3219252469142</v>
       </c>
       <c r="G4" t="n">
-        <v>387.8150062118701</v>
+        <v>384.3219252469142</v>
       </c>
       <c r="H4" t="n">
-        <v>387.8150062118701</v>
+        <v>384.3219252469142</v>
       </c>
       <c r="I4" t="n">
         <v>584.6469890061231</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49237.11966583622</v>
+        <v>49237.11966583625</v>
       </c>
       <c r="C5" t="n">
-        <v>50823.37311172271</v>
+        <v>50167.8958754642</v>
       </c>
       <c r="D5" t="n">
-        <v>50823.37311172271</v>
+        <v>52060.02435841889</v>
       </c>
       <c r="E5" t="n">
-        <v>51571.48185587228</v>
+        <v>51571.48185587232</v>
       </c>
       <c r="F5" t="n">
-        <v>51571.48185587229</v>
+        <v>51571.48185587232</v>
       </c>
       <c r="G5" t="n">
-        <v>51969.69964688922</v>
+        <v>51571.48185587232</v>
       </c>
       <c r="H5" t="n">
-        <v>51969.69964688923</v>
+        <v>51571.48185587232</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-398146.5491376429</v>
+        <v>-411830.7703086414</v>
       </c>
       <c r="C6" t="n">
-        <v>54790.61430447433</v>
+        <v>49167.34809022975</v>
       </c>
       <c r="D6" t="n">
-        <v>77941.98480890467</v>
+        <v>41207.040790322</v>
       </c>
       <c r="E6" t="n">
-        <v>-251277.9613091688</v>
+        <v>-242124.2348144986</v>
       </c>
       <c r="F6" t="n">
-        <v>180472.1505668753</v>
+        <v>172858.7704507128</v>
       </c>
       <c r="G6" t="n">
-        <v>176582.8277046587</v>
+        <v>172858.7704507126</v>
       </c>
       <c r="H6" t="n">
-        <v>181186.4425206566</v>
+        <v>172858.7704507126</v>
       </c>
       <c r="I6" t="n">
-        <v>-28919.97664411527</v>
+        <v>-37453.93088597605</v>
       </c>
       <c r="J6" t="n">
-        <v>197000.6640896773</v>
+        <v>192926.6687115077</v>
       </c>
       <c r="K6" t="n">
-        <v>216240.6736390815</v>
+        <v>214234.9522558388</v>
       </c>
       <c r="L6" t="n">
-        <v>221245.8920814751</v>
+        <v>211383.8453544652</v>
       </c>
       <c r="M6" t="n">
-        <v>114087.5997592598</v>
+        <v>113710.0961502373</v>
       </c>
       <c r="N6" t="n">
-        <v>221245.8920814752</v>
+        <v>217171.8967033055</v>
       </c>
       <c r="O6" t="n">
-        <v>220026.4975718524</v>
+        <v>217171.8967033055</v>
       </c>
       <c r="P6" t="n">
-        <v>221245.8920814752</v>
+        <v>217171.8967033056</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>457.5913187641655</v>
+        <v>457.5913187641658</v>
       </c>
       <c r="C3" t="n">
-        <v>476.1157511985022</v>
+        <v>468.4610199783405</v>
       </c>
       <c r="D3" t="n">
-        <v>476.1157511985022</v>
+        <v>491.4732251234652</v>
       </c>
       <c r="E3" t="n">
-        <v>853.7106645376846</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="F3" t="n">
-        <v>853.7106645376848</v>
+        <v>853.7106645376849</v>
       </c>
       <c r="G3" t="n">
-        <v>857.8455349861806</v>
+        <v>853.7106645376849</v>
       </c>
       <c r="H3" t="n">
-        <v>857.8455349861806</v>
+        <v>853.7106645376849</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="C4" t="n">
-        <v>112.1126601249237</v>
+        <v>104.0764085515852</v>
       </c>
       <c r="D4" t="n">
-        <v>112.1126601249237</v>
+        <v>126.9458560974893</v>
       </c>
       <c r="E4" t="n">
-        <v>542.1149567261638</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="F4" t="n">
-        <v>542.1149567261638</v>
+        <v>542.1149567261642</v>
       </c>
       <c r="G4" t="n">
-        <v>547.182022766291</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="H4" t="n">
-        <v>547.1820227662911</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022926</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>457.5913187641655</v>
+        <v>457.5913187641658</v>
       </c>
       <c r="C3" t="n">
-        <v>18.52443243433669</v>
+        <v>10.86970121417465</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.01220514512471</v>
       </c>
       <c r="E3" t="n">
-        <v>377.5949133391824</v>
+        <v>362.23743941422</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.134870448495803</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>231.9311656071177</v>
+        <v>236.0660360556134</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,46 +27011,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="C4" t="n">
-        <v>19.44771083582145</v>
+        <v>11.41145926248274</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>22.86944754590409</v>
       </c>
       <c r="E4" t="n">
-        <v>430.0022966012401</v>
+        <v>415.169100628675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5.067066040127202</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>284.2194326360016</v>
+        <v>289.2864986761283</v>
       </c>
       <c r="J4" t="n">
-        <v>92.66494928910242</v>
+        <v>92.66494928910268</v>
       </c>
       <c r="K4" t="n">
-        <v>19.44771083582134</v>
+        <v>11.41145926248262</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>22.86944754590421</v>
       </c>
       <c r="M4" t="n">
-        <v>430.0022966012399</v>
+        <v>415.1691006286748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>5.067066040127202</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="K4" t="n">
-        <v>19.44771083582145</v>
+        <v>11.41145926248274</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>22.86944754590409</v>
       </c>
       <c r="M4" t="n">
-        <v>430.0022966012401</v>
+        <v>415.169100628675</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>5.067066040127202</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.839563090509207</v>
+        <v>1.839563090509208</v>
       </c>
       <c r="H2" t="n">
-        <v>18.83942550067742</v>
+        <v>18.83942550067743</v>
       </c>
       <c r="I2" t="n">
-        <v>70.91975604685626</v>
+        <v>70.91975604685631</v>
       </c>
       <c r="J2" t="n">
-        <v>156.1306178531059</v>
+        <v>156.130617853106</v>
       </c>
       <c r="K2" t="n">
-        <v>233.9993234743607</v>
+        <v>233.9993234743608</v>
       </c>
       <c r="L2" t="n">
-        <v>290.2968524055319</v>
+        <v>290.2968524055321</v>
       </c>
       <c r="M2" t="n">
-        <v>323.011182516375</v>
+        <v>323.0111825163752</v>
       </c>
       <c r="N2" t="n">
-        <v>322.0780128856931</v>
+        <v>322.0780128856934</v>
       </c>
       <c r="O2" t="n">
-        <v>309.9456856660333</v>
+        <v>309.9456856660335</v>
       </c>
       <c r="P2" t="n">
-        <v>264.5314718690873</v>
+        <v>264.5314718690875</v>
       </c>
       <c r="Q2" t="n">
-        <v>198.6521186902262</v>
+        <v>198.6521186902264</v>
       </c>
       <c r="R2" t="n">
         <v>115.5544549841991</v>
       </c>
       <c r="S2" t="n">
-        <v>41.91904392497859</v>
+        <v>41.91904392497862</v>
       </c>
       <c r="T2" t="n">
-        <v>8.052687428704056</v>
+        <v>8.052687428704061</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1471650472407365</v>
+        <v>0.1471650472407366</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9842530252663183</v>
+        <v>0.984253025266319</v>
       </c>
       <c r="H3" t="n">
-        <v>9.505812112440497</v>
+        <v>9.505812112440502</v>
       </c>
       <c r="I3" t="n">
-        <v>33.88765898395</v>
+        <v>33.88765898395002</v>
       </c>
       <c r="J3" t="n">
-        <v>92.99032639149897</v>
+        <v>92.99032639149904</v>
       </c>
       <c r="K3" t="n">
-        <v>158.9352790843423</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>213.7080965605662</v>
+        <v>213.7080965605663</v>
       </c>
       <c r="M3" t="n">
-        <v>234.7989832111205</v>
+        <v>234.7989832111208</v>
       </c>
       <c r="N3" t="n">
-        <v>163.7876250036813</v>
+        <v>224.0066613724358</v>
       </c>
       <c r="O3" t="n">
-        <v>234.1788327264121</v>
+        <v>234.1788327264123</v>
       </c>
       <c r="P3" t="n">
-        <v>187.9491588335306</v>
+        <v>148.8239625747599</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.6390352953988</v>
+        <v>125.6390352953989</v>
       </c>
       <c r="R3" t="n">
-        <v>61.11002555118424</v>
+        <v>61.11002555118428</v>
       </c>
       <c r="S3" t="n">
-        <v>18.28206825439849</v>
+        <v>18.2820682543985</v>
       </c>
       <c r="T3" t="n">
-        <v>3.967230395700641</v>
+        <v>3.967230395700644</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06475348850436308</v>
+        <v>0.06475348850436312</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8251646731812819</v>
+        <v>0.8251646731812825</v>
       </c>
       <c r="H4" t="n">
-        <v>7.336464094284494</v>
+        <v>7.336464094284499</v>
       </c>
       <c r="I4" t="n">
-        <v>24.81495217166983</v>
+        <v>24.81495217166985</v>
       </c>
       <c r="J4" t="n">
-        <v>58.33914239391663</v>
+        <v>58.33914239391667</v>
       </c>
       <c r="K4" t="n">
-        <v>95.8691320296071</v>
+        <v>95.86913202960717</v>
       </c>
       <c r="L4" t="n">
-        <v>122.6794824109699</v>
+        <v>122.67948241097</v>
       </c>
       <c r="M4" t="n">
-        <v>129.3483132696804</v>
+        <v>129.3483132696805</v>
       </c>
       <c r="N4" t="n">
-        <v>126.272699487823</v>
+        <v>126.2726994878231</v>
       </c>
       <c r="O4" t="n">
-        <v>116.6332758056598</v>
+        <v>116.6332758056599</v>
       </c>
       <c r="P4" t="n">
-        <v>99.79991647276155</v>
+        <v>99.79991647276162</v>
       </c>
       <c r="Q4" t="n">
-        <v>69.09628913338899</v>
+        <v>69.09628913338904</v>
       </c>
       <c r="R4" t="n">
-        <v>37.102404305042</v>
+        <v>37.10240430504202</v>
       </c>
       <c r="S4" t="n">
-        <v>14.38036980444106</v>
+        <v>14.38036980444107</v>
       </c>
       <c r="T4" t="n">
-        <v>3.52570360359275</v>
+        <v>3.525703603592752</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04500898217352452</v>
+        <v>0.04500898217352455</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.914033170647244</v>
+        <v>1.883260381822473</v>
       </c>
       <c r="H5" t="n">
-        <v>19.60209220889109</v>
+        <v>19.2869403853394</v>
       </c>
       <c r="I5" t="n">
-        <v>73.79076381137793</v>
+        <v>72.60439587021095</v>
       </c>
       <c r="J5" t="n">
-        <v>162.4511728172216</v>
+        <v>159.8393708317053</v>
       </c>
       <c r="K5" t="n">
-        <v>243.4721969307195</v>
+        <v>239.5577827942506</v>
       </c>
       <c r="L5" t="n">
-        <v>302.0487895769152</v>
+        <v>297.1926127044501</v>
       </c>
       <c r="M5" t="n">
-        <v>336.087476975413</v>
+        <v>330.6840445196855</v>
       </c>
       <c r="N5" t="n">
-        <v>341.5257237215146</v>
+        <v>333.4894721481761</v>
       </c>
       <c r="O5" t="n">
-        <v>322.493056380891</v>
+        <v>317.3081876577914</v>
       </c>
       <c r="P5" t="n">
-        <v>275.2403624805372</v>
+        <v>270.8151969815491</v>
       </c>
       <c r="Q5" t="n">
-        <v>206.6940495567327</v>
+        <v>203.3709345575317</v>
       </c>
       <c r="R5" t="n">
-        <v>120.23238615567</v>
+        <v>118.299354959656</v>
       </c>
       <c r="S5" t="n">
-        <v>43.61603087612411</v>
+        <v>42.91479595077964</v>
       </c>
       <c r="T5" t="n">
-        <v>8.378680204508314</v>
+        <v>8.243972321427879</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1531226536517795</v>
+        <v>0.1506608305457978</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.024098030879797</v>
+        <v>1.007633137311902</v>
       </c>
       <c r="H6" t="n">
-        <v>9.890630982444359</v>
+        <v>9.73161477351232</v>
       </c>
       <c r="I6" t="n">
-        <v>35.25951553687022</v>
+        <v>34.69263213990541</v>
       </c>
       <c r="J6" t="n">
-        <v>96.75480562798998</v>
+        <v>95.19923425805126</v>
       </c>
       <c r="K6" t="n">
-        <v>165.3693736969364</v>
+        <v>162.7106544579487</v>
       </c>
       <c r="L6" t="n">
-        <v>222.3595307837911</v>
+        <v>218.7845546606391</v>
       </c>
       <c r="M6" t="n">
-        <v>254.246694046942</v>
+        <v>246.2104424736035</v>
       </c>
       <c r="N6" t="n">
-        <v>189.1706736602745</v>
+        <v>235.4181206349185</v>
       </c>
       <c r="O6" t="n">
-        <v>243.6589731628788</v>
+        <v>183.0052363906384</v>
       </c>
       <c r="P6" t="n">
-        <v>195.5578073177395</v>
+        <v>192.4137347907263</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.7252153102001</v>
+        <v>128.6234860891474</v>
       </c>
       <c r="R6" t="n">
-        <v>63.58391107515094</v>
+        <v>62.56164338503199</v>
       </c>
       <c r="S6" t="n">
-        <v>19.0221717577892</v>
+        <v>18.7163435812101</v>
       </c>
       <c r="T6" t="n">
-        <v>4.127833729730409</v>
+        <v>4.061468654340517</v>
       </c>
       <c r="U6" t="n">
-        <v>0.06737487045261827</v>
+        <v>0.0662916537705199</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8585693874071351</v>
+        <v>0.8447657737314335</v>
       </c>
       <c r="H7" t="n">
-        <v>7.633462371674351</v>
+        <v>7.51073569735766</v>
       </c>
       <c r="I7" t="n">
-        <v>25.8195230322073</v>
+        <v>25.40441072275985</v>
       </c>
       <c r="J7" t="n">
-        <v>60.70085568968445</v>
+        <v>59.72494020281235</v>
       </c>
       <c r="K7" t="n">
-        <v>99.75015246421076</v>
+        <v>98.14642352988835</v>
       </c>
       <c r="L7" t="n">
-        <v>127.6458523786935</v>
+        <v>125.5936314873079</v>
       </c>
       <c r="M7" t="n">
-        <v>134.584654064193</v>
+        <v>132.4208748768282</v>
       </c>
       <c r="N7" t="n">
-        <v>131.3845318020392</v>
+        <v>129.2722024474657</v>
       </c>
       <c r="O7" t="n">
-        <v>121.354880321874</v>
+        <v>119.4038022725121</v>
       </c>
       <c r="P7" t="n">
-        <v>103.8400648187684</v>
+        <v>102.1705804883908</v>
       </c>
       <c r="Q7" t="n">
-        <v>71.89347843097383</v>
+        <v>70.73761401672941</v>
       </c>
       <c r="R7" t="n">
-        <v>38.60440172832445</v>
+        <v>37.98374106250608</v>
       </c>
       <c r="S7" t="n">
-        <v>14.96252286963161</v>
+        <v>14.72196352948325</v>
       </c>
       <c r="T7" t="n">
-        <v>3.668432837103212</v>
+        <v>3.609453760488851</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04683105749493469</v>
+        <v>0.0460781331126237</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.914033170647244</v>
+        <v>1.975771759290311</v>
       </c>
       <c r="H8" t="n">
-        <v>19.60209220889109</v>
+        <v>20.2343725298319</v>
       </c>
       <c r="I8" t="n">
-        <v>73.79076381137793</v>
+        <v>76.17094075003978</v>
       </c>
       <c r="J8" t="n">
-        <v>162.4511728172216</v>
+        <v>167.6911583550662</v>
       </c>
       <c r="K8" t="n">
-        <v>243.4721969307195</v>
+        <v>251.3255769258251</v>
       </c>
       <c r="L8" t="n">
-        <v>302.0487895769152</v>
+        <v>311.7916019042059</v>
       </c>
       <c r="M8" t="n">
-        <v>336.087476975413</v>
+        <v>346.928232928485</v>
       </c>
       <c r="N8" t="n">
-        <v>341.5257237215146</v>
+        <v>352.5418944395686</v>
       </c>
       <c r="O8" t="n">
-        <v>322.493056380891</v>
+        <v>332.8953140081256</v>
       </c>
       <c r="P8" t="n">
-        <v>275.2403624805372</v>
+        <v>284.1184487006461</v>
       </c>
       <c r="Q8" t="n">
-        <v>206.6940495567327</v>
+        <v>213.3611225710617</v>
       </c>
       <c r="R8" t="n">
-        <v>120.23238615567</v>
+        <v>124.1105727745201</v>
       </c>
       <c r="S8" t="n">
-        <v>43.61603087612411</v>
+        <v>45.022898964828</v>
       </c>
       <c r="T8" t="n">
-        <v>8.378680204508314</v>
+        <v>8.64894087629334</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1531226536517795</v>
+        <v>0.1580617407432248</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.024098030879797</v>
+        <v>1.057131088001416</v>
       </c>
       <c r="H9" t="n">
-        <v>9.890630982444359</v>
+        <v>10.20966077096104</v>
       </c>
       <c r="I9" t="n">
-        <v>35.25951553687022</v>
+        <v>36.39683789829436</v>
       </c>
       <c r="J9" t="n">
-        <v>96.75480562798998</v>
+        <v>99.87570511683553</v>
       </c>
       <c r="K9" t="n">
-        <v>165.3693736969364</v>
+        <v>170.7034880129304</v>
       </c>
       <c r="L9" t="n">
-        <v>222.3595307837911</v>
+        <v>178.8685014469901</v>
       </c>
       <c r="M9" t="n">
-        <v>199.9629954989595</v>
+        <v>267.8529076922885</v>
       </c>
       <c r="N9" t="n">
-        <v>243.454372208257</v>
+        <v>258.2875681808226</v>
       </c>
       <c r="O9" t="n">
-        <v>243.6589731628788</v>
+        <v>251.5183777667228</v>
       </c>
       <c r="P9" t="n">
-        <v>195.5578073177395</v>
+        <v>201.8656724096739</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.7252153102001</v>
+        <v>134.9418560754088</v>
       </c>
       <c r="R9" t="n">
-        <v>63.58391107515094</v>
+        <v>65.63485825328091</v>
       </c>
       <c r="S9" t="n">
-        <v>19.0221717577892</v>
+        <v>19.63574630564032</v>
       </c>
       <c r="T9" t="n">
-        <v>4.127833729730409</v>
+        <v>4.260980131023249</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06737487045261827</v>
+        <v>0.06954809789483002</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8585693874071351</v>
+        <v>0.8862631928455929</v>
       </c>
       <c r="H10" t="n">
-        <v>7.633462371674351</v>
+        <v>7.879685478209004</v>
       </c>
       <c r="I10" t="n">
-        <v>25.8195230322073</v>
+        <v>26.65235129030202</v>
       </c>
       <c r="J10" t="n">
-        <v>60.70085568968445</v>
+        <v>62.65880773418342</v>
       </c>
       <c r="K10" t="n">
-        <v>99.75015246421076</v>
+        <v>102.9676691324243</v>
       </c>
       <c r="L10" t="n">
-        <v>127.6458523786935</v>
+        <v>131.7631659617894</v>
       </c>
       <c r="M10" t="n">
-        <v>134.584654064193</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N10" t="n">
-        <v>131.3845318020392</v>
+        <v>135.6224393197261</v>
       </c>
       <c r="O10" t="n">
-        <v>121.354880321874</v>
+        <v>125.2692738396662</v>
       </c>
       <c r="P10" t="n">
-        <v>103.8400648187684</v>
+        <v>107.189504705616</v>
       </c>
       <c r="Q10" t="n">
-        <v>71.89347843097383</v>
+        <v>74.21245699364324</v>
       </c>
       <c r="R10" t="n">
-        <v>38.60440172832445</v>
+        <v>39.84961592558456</v>
       </c>
       <c r="S10" t="n">
-        <v>14.96252286963161</v>
+        <v>15.44515036986364</v>
       </c>
       <c r="T10" t="n">
-        <v>3.668432837103212</v>
+        <v>3.786760914885714</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04683105749493469</v>
+        <v>0.04834162870066876</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.432002671508277</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H11" t="n">
-        <v>35.14799735958415</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I11" t="n">
-        <v>132.312282993323</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J11" t="n">
-        <v>291.2869367409259</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K11" t="n">
-        <v>436.5636098258714</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L11" t="n">
-        <v>541.5957615840429</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M11" t="n">
-        <v>602.6296390934782</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N11" t="n">
-        <v>612.3808166839011</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O11" t="n">
-        <v>578.2538401190907</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P11" t="n">
-        <v>493.52627416623</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q11" t="n">
-        <v>370.6176784928397</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R11" t="n">
-        <v>215.585537814132</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S11" t="n">
-        <v>78.20676087699495</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T11" t="n">
-        <v>15.02359169452749</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2745602137206621</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.836283316175397</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H12" t="n">
-        <v>17.73463097464134</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I12" t="n">
-        <v>63.22291242095118</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J12" t="n">
-        <v>173.4885040076063</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K12" t="n">
-        <v>296.5194861913579</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L12" t="n">
-        <v>398.70704196168</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M12" t="n">
-        <v>465.272312173038</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N12" t="n">
-        <v>477.5866858152845</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O12" t="n">
-        <v>436.8985133884507</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P12" t="n">
-        <v>350.6495746475633</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q12" t="n">
-        <v>234.3999545349507</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R12" t="n">
-        <v>114.0106430867497</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S12" t="n">
-        <v>34.1081572105386</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T12" t="n">
-        <v>7.401510384057848</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.539478247526972</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H13" t="n">
-        <v>13.68736114619436</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I13" t="n">
-        <v>46.29630948017477</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J13" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K13" t="n">
-        <v>178.8593818490427</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L13" t="n">
-        <v>228.8784296368737</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M13" t="n">
-        <v>241.3202129282507</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N13" t="n">
-        <v>235.582157642014</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O13" t="n">
-        <v>217.5982526595397</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P13" t="n">
-        <v>186.1928964099893</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q13" t="n">
-        <v>128.9103103451904</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R13" t="n">
-        <v>69.22054011153092</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S13" t="n">
-        <v>26.8289072773564</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T13" t="n">
-        <v>6.577770693978879</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08397154077419858</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.432002671508278</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H14" t="n">
-        <v>35.14799735958416</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I14" t="n">
         <v>132.312282993323</v>
@@ -32007,13 +32007,13 @@
         <v>541.5957615840431</v>
       </c>
       <c r="M14" t="n">
-        <v>602.6296390934783</v>
+        <v>602.6296390934784</v>
       </c>
       <c r="N14" t="n">
         <v>612.3808166839013</v>
       </c>
       <c r="O14" t="n">
-        <v>578.2538401190908</v>
+        <v>578.2538401190909</v>
       </c>
       <c r="P14" t="n">
         <v>493.5262741662302</v>
@@ -32025,10 +32025,10 @@
         <v>215.5855378141321</v>
       </c>
       <c r="S14" t="n">
-        <v>78.20676087699496</v>
+        <v>78.20676087699498</v>
       </c>
       <c r="T14" t="n">
-        <v>15.02359169452749</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U14" t="n">
         <v>0.2745602137206622</v>
@@ -32077,16 +32077,16 @@
         <v>63.2229124209512</v>
       </c>
       <c r="J15" t="n">
-        <v>173.4885040076063</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K15" t="n">
-        <v>296.5194861913579</v>
+        <v>296.519486191358</v>
       </c>
       <c r="L15" t="n">
         <v>398.7070419616801</v>
       </c>
       <c r="M15" t="n">
-        <v>465.2723121730381</v>
+        <v>465.2723121730382</v>
       </c>
       <c r="N15" t="n">
         <v>477.5866858152847</v>
@@ -32095,7 +32095,7 @@
         <v>436.8985133884509</v>
       </c>
       <c r="P15" t="n">
-        <v>350.6495746475634</v>
+        <v>350.6495746475635</v>
       </c>
       <c r="Q15" t="n">
         <v>234.3999545349508</v>
@@ -32147,28 +32147,28 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.539478247526972</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H16" t="n">
-        <v>13.68736114619436</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I16" t="n">
-        <v>46.29630948017478</v>
+        <v>46.29630948017479</v>
       </c>
       <c r="J16" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K16" t="n">
         <v>178.8593818490428</v>
       </c>
       <c r="L16" t="n">
-        <v>228.8784296368737</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M16" t="n">
         <v>241.3202129282508</v>
       </c>
       <c r="N16" t="n">
-        <v>235.582157642014</v>
+        <v>235.5821576420141</v>
       </c>
       <c r="O16" t="n">
         <v>217.5982526595398</v>
@@ -32180,16 +32180,16 @@
         <v>128.9103103451904</v>
       </c>
       <c r="R16" t="n">
-        <v>69.22054011153094</v>
+        <v>69.22054011153095</v>
       </c>
       <c r="S16" t="n">
         <v>26.82890727735641</v>
       </c>
       <c r="T16" t="n">
-        <v>6.577770693978881</v>
+        <v>6.577770693978882</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08397154077419859</v>
+        <v>0.08397154077419861</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.4486252662761</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H17" t="n">
-        <v>35.31823350825012</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I17" t="n">
-        <v>132.9531255781095</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J17" t="n">
-        <v>292.6977586936014</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K17" t="n">
-        <v>438.6780662150688</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L17" t="n">
-        <v>544.2189317078662</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M17" t="n">
-        <v>605.5484212870037</v>
+        <v>602.6296390934784</v>
       </c>
       <c r="N17" t="n">
-        <v>615.3468278248108</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O17" t="n">
-        <v>581.0545603332778</v>
+        <v>578.2538401190909</v>
       </c>
       <c r="P17" t="n">
-        <v>495.9166240720864</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q17" t="n">
-        <v>372.4127317235735</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R17" t="n">
-        <v>216.6297068827163</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S17" t="n">
-        <v>78.58554825526672</v>
+        <v>78.20676087699498</v>
       </c>
       <c r="T17" t="n">
-        <v>15.09635710312364</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U17" t="n">
-        <v>0.275890021302088</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.845177188460841</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H18" t="n">
-        <v>17.82052705697708</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I18" t="n">
-        <v>63.52912688341056</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J18" t="n">
-        <v>174.3287798975219</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K18" t="n">
-        <v>297.9556515243983</v>
+        <v>296.519486191358</v>
       </c>
       <c r="L18" t="n">
-        <v>400.638143485763</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M18" t="n">
-        <v>467.5258165674684</v>
+        <v>465.2723121730382</v>
       </c>
       <c r="N18" t="n">
-        <v>479.8998337655239</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O18" t="n">
-        <v>439.0145918527862</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P18" t="n">
-        <v>352.3479141719654</v>
+        <v>350.6495746475635</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.5352495305453</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R18" t="n">
-        <v>114.5628433326828</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S18" t="n">
-        <v>34.27335698741955</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T18" t="n">
-        <v>7.437358930682072</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1213932360829501</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.546934571286555</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H19" t="n">
-        <v>13.7536546428932</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I19" t="n">
-        <v>46.52054147105387</v>
+        <v>46.29630948017479</v>
       </c>
       <c r="J19" t="n">
-        <v>109.3682741899594</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K19" t="n">
-        <v>179.7256711003834</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L19" t="n">
-        <v>229.9869816256393</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M19" t="n">
-        <v>242.4890255699461</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N19" t="n">
-        <v>236.7231785315145</v>
+        <v>235.5821576420141</v>
       </c>
       <c r="O19" t="n">
-        <v>218.6521701305761</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P19" t="n">
-        <v>187.0947048763302</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q19" t="n">
-        <v>129.5346757829133</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R19" t="n">
-        <v>69.55580354166635</v>
+        <v>69.22054011153095</v>
       </c>
       <c r="S19" t="n">
-        <v>26.9588506650575</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T19" t="n">
-        <v>6.609629531860733</v>
+        <v>6.577770693978882</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0843782493429031</v>
+        <v>0.08397154077419861</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.4486252662761</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H20" t="n">
-        <v>35.31823350825012</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I20" t="n">
-        <v>132.9531255781095</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J20" t="n">
-        <v>292.6977586936014</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K20" t="n">
-        <v>438.6780662150688</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L20" t="n">
-        <v>544.2189317078662</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M20" t="n">
-        <v>605.5484212870037</v>
+        <v>602.6296390934784</v>
       </c>
       <c r="N20" t="n">
-        <v>615.3468278248108</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O20" t="n">
-        <v>581.0545603332778</v>
+        <v>578.2538401190909</v>
       </c>
       <c r="P20" t="n">
-        <v>495.9166240720864</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q20" t="n">
-        <v>372.4127317235735</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R20" t="n">
-        <v>216.6297068827163</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S20" t="n">
-        <v>78.58554825526672</v>
+        <v>78.20676087699498</v>
       </c>
       <c r="T20" t="n">
-        <v>15.09635710312364</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U20" t="n">
-        <v>0.275890021302088</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.845177188460841</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H21" t="n">
-        <v>17.82052705697708</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I21" t="n">
-        <v>63.52912688341056</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J21" t="n">
-        <v>174.3287798975219</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K21" t="n">
-        <v>297.9556515243983</v>
+        <v>296.519486191358</v>
       </c>
       <c r="L21" t="n">
-        <v>400.638143485763</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M21" t="n">
-        <v>467.5258165674684</v>
+        <v>465.2723121730382</v>
       </c>
       <c r="N21" t="n">
-        <v>479.8998337655239</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O21" t="n">
-        <v>439.0145918527862</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P21" t="n">
-        <v>352.3479141719654</v>
+        <v>350.6495746475635</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.5352495305453</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R21" t="n">
-        <v>114.5628433326828</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S21" t="n">
-        <v>34.27335698741955</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T21" t="n">
-        <v>7.437358930682072</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1213932360829501</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.546934571286555</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H22" t="n">
-        <v>13.7536546428932</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I22" t="n">
-        <v>46.52054147105387</v>
+        <v>46.29630948017479</v>
       </c>
       <c r="J22" t="n">
-        <v>109.3682741899594</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K22" t="n">
-        <v>179.7256711003834</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L22" t="n">
-        <v>229.9869816256393</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M22" t="n">
-        <v>242.4890255699461</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N22" t="n">
-        <v>236.7231785315145</v>
+        <v>235.5821576420141</v>
       </c>
       <c r="O22" t="n">
-        <v>218.6521701305761</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P22" t="n">
-        <v>187.0947048763302</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q22" t="n">
-        <v>129.5346757829133</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R22" t="n">
-        <v>69.55580354166635</v>
+        <v>69.22054011153095</v>
       </c>
       <c r="S22" t="n">
-        <v>26.9588506650575</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T22" t="n">
-        <v>6.609629531860733</v>
+        <v>6.577770693978882</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0843782493429031</v>
+        <v>0.08397154077419861</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34374,7 +34374,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623193</v>
       </c>
       <c r="M44" t="n">
         <v>769.2673490574995</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>13.90947242938014</v>
+        <v>13.90947242938029</v>
       </c>
       <c r="L2" t="n">
-        <v>54.53043743554463</v>
+        <v>54.53043743554485</v>
       </c>
       <c r="M2" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="N2" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="O2" t="n">
-        <v>79.84747424434661</v>
+        <v>79.84747424434678</v>
       </c>
       <c r="P2" t="n">
-        <v>33.29847611381774</v>
+        <v>33.29847611381791</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>21.09384010998329</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>75.15371678069201</v>
+        <v>75.15371678069215</v>
       </c>
       <c r="M3" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="N3" t="n">
-        <v>32.44591292034803</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="O3" t="n">
-        <v>91.5825882819677</v>
+        <v>91.58258828196784</v>
       </c>
       <c r="P3" t="n">
-        <v>53.97475141920032</v>
+        <v>14.84955516042964</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>23.38234588573897</v>
+        <v>19.46793174927001</v>
       </c>
       <c r="L5" t="n">
-        <v>66.28237460692793</v>
+        <v>61.4261977344629</v>
       </c>
       <c r="M5" t="n">
-        <v>105.7412437481403</v>
+        <v>100.3378112924128</v>
       </c>
       <c r="N5" t="n">
-        <v>112.1126601249237</v>
+        <v>104.0764085515852</v>
       </c>
       <c r="O5" t="n">
-        <v>92.39484495920428</v>
+        <v>87.20997623610467</v>
       </c>
       <c r="P5" t="n">
-        <v>44.00736672526762</v>
+        <v>39.58220122627955</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>27.52793472257738</v>
+        <v>24.8692154835897</v>
       </c>
       <c r="L6" t="n">
-        <v>83.8051510039169</v>
+        <v>80.23017488076493</v>
       </c>
       <c r="M6" t="n">
-        <v>112.1126601249237</v>
+        <v>104.0764085515852</v>
       </c>
       <c r="N6" t="n">
-        <v>57.82896157694119</v>
+        <v>104.0764085515852</v>
       </c>
       <c r="O6" t="n">
-        <v>101.0627287184343</v>
+        <v>40.40899194619399</v>
       </c>
       <c r="P6" t="n">
-        <v>61.58339990340929</v>
+        <v>58.43932737639608</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35105,7 +35105,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>3.698987336806027</v>
+        <v>1.586657982232538</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>23.38234588573897</v>
+        <v>31.23572588084451</v>
       </c>
       <c r="L8" t="n">
-        <v>66.28237460692793</v>
+        <v>76.02518693421871</v>
       </c>
       <c r="M8" t="n">
-        <v>105.7412437481403</v>
+        <v>116.5819997012123</v>
       </c>
       <c r="N8" t="n">
-        <v>112.1126601249237</v>
+        <v>123.1288308429777</v>
       </c>
       <c r="O8" t="n">
-        <v>92.39484495920428</v>
+        <v>102.7971025864389</v>
       </c>
       <c r="P8" t="n">
-        <v>44.00736672526762</v>
+        <v>52.88545294537653</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>27.52793472257738</v>
+        <v>32.86204903857137</v>
       </c>
       <c r="L9" t="n">
-        <v>83.8051510039169</v>
+        <v>40.31412166711593</v>
       </c>
       <c r="M9" t="n">
-        <v>57.82896157694119</v>
+        <v>125.7188737702702</v>
       </c>
       <c r="N9" t="n">
-        <v>112.1126601249237</v>
+        <v>126.9458560974893</v>
       </c>
       <c r="O9" t="n">
-        <v>101.0627287184343</v>
+        <v>108.9221333222784</v>
       </c>
       <c r="P9" t="n">
-        <v>61.58339990340929</v>
+        <v>67.89126499534362</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35342,7 +35342,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>3.698987336806027</v>
+        <v>7.936894854492948</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>110.2410322142396</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K11" t="n">
-        <v>216.4737587808908</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L11" t="n">
-        <v>305.8293466140556</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M11" t="n">
-        <v>372.2834058662055</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N11" t="n">
-        <v>382.9677530873102</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O11" t="n">
-        <v>348.1556286974039</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P11" t="n">
-        <v>262.2932784109605</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.3119886183902</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>46.65087734093959</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K12" t="n">
-        <v>158.6780472169989</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L12" t="n">
-        <v>260.1526621818058</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M12" t="n">
-        <v>323.1382782510197</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N12" t="n">
-        <v>346.2449737319512</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O12" t="n">
-        <v>294.3022689440062</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P12" t="n">
-        <v>216.6751672332331</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.41818044892918</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>49.84612367850733</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99375335563539</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M13" t="n">
-        <v>102.3944289806456</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N13" t="n">
-        <v>107.8966131767808</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O13" t="n">
-        <v>79.14171420769694</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P13" t="n">
-        <v>48.46489236084173</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>110.2410322142397</v>
       </c>
       <c r="K14" t="n">
-        <v>216.4737587808909</v>
+        <v>216.473758780891</v>
       </c>
       <c r="L14" t="n">
         <v>305.8293466140559</v>
       </c>
       <c r="M14" t="n">
-        <v>372.2834058662056</v>
+        <v>372.2834058662057</v>
       </c>
       <c r="N14" t="n">
         <v>382.9677530873104</v>
       </c>
       <c r="O14" t="n">
-        <v>348.155628697404</v>
+        <v>348.1556286974042</v>
       </c>
       <c r="P14" t="n">
-        <v>262.2932784109606</v>
+        <v>262.2932784109607</v>
       </c>
       <c r="Q14" t="n">
         <v>148.3119886183904</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>46.65087734093964</v>
+        <v>46.65087734093967</v>
       </c>
       <c r="K15" t="n">
-        <v>158.6780472169989</v>
+        <v>158.678047216999</v>
       </c>
       <c r="L15" t="n">
-        <v>260.1526621818059</v>
+        <v>260.152662181806</v>
       </c>
       <c r="M15" t="n">
-        <v>323.1382782510198</v>
+        <v>323.1382782510199</v>
       </c>
       <c r="N15" t="n">
         <v>346.2449737319514</v>
       </c>
       <c r="O15" t="n">
-        <v>294.3022689440064</v>
+        <v>294.3022689440065</v>
       </c>
       <c r="P15" t="n">
-        <v>216.6751672332332</v>
+        <v>216.6751672332333</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.41818044892926</v>
+        <v>94.41818044892929</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>49.84612367850738</v>
+        <v>49.84612367850741</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99375335563545</v>
+        <v>93.99375335563548</v>
       </c>
       <c r="M16" t="n">
         <v>102.3944289806457</v>
       </c>
       <c r="N16" t="n">
-        <v>107.8966131767808</v>
+        <v>107.8966131767809</v>
       </c>
       <c r="O16" t="n">
-        <v>79.14171420769699</v>
+        <v>79.14171420769702</v>
       </c>
       <c r="P16" t="n">
-        <v>48.46489236084179</v>
+        <v>48.46489236084182</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>111.6518541669151</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K17" t="n">
-        <v>218.5882151700883</v>
+        <v>216.473758780891</v>
       </c>
       <c r="L17" t="n">
-        <v>308.452516737879</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M17" t="n">
-        <v>375.202188059731</v>
+        <v>372.2834058662057</v>
       </c>
       <c r="N17" t="n">
-        <v>385.9337642282199</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O17" t="n">
-        <v>350.956348911591</v>
+        <v>348.1556286974042</v>
       </c>
       <c r="P17" t="n">
-        <v>264.6836283168169</v>
+        <v>262.2932784109607</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.107041849124</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R17" t="n">
-        <v>1.044169068584154</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>47.49115323085519</v>
+        <v>46.65087734093967</v>
       </c>
       <c r="K18" t="n">
-        <v>160.1142125500393</v>
+        <v>158.678047216999</v>
       </c>
       <c r="L18" t="n">
-        <v>262.0837637058888</v>
+        <v>260.152662181806</v>
       </c>
       <c r="M18" t="n">
-        <v>325.3917826454501</v>
+        <v>323.1382782510199</v>
       </c>
       <c r="N18" t="n">
-        <v>348.5581216821905</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O18" t="n">
-        <v>296.4183474083418</v>
+        <v>294.3022689440065</v>
       </c>
       <c r="P18" t="n">
-        <v>218.3735067576352</v>
+        <v>216.6751672332333</v>
       </c>
       <c r="Q18" t="n">
-        <v>95.5534754445238</v>
+        <v>94.41818044892929</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>50.71241292984797</v>
+        <v>49.84612367850741</v>
       </c>
       <c r="L19" t="n">
-        <v>95.10230534440103</v>
+        <v>93.99375335563548</v>
       </c>
       <c r="M19" t="n">
-        <v>103.563241622341</v>
+        <v>102.3944289806457</v>
       </c>
       <c r="N19" t="n">
-        <v>109.0376340662814</v>
+        <v>107.8966131767809</v>
       </c>
       <c r="O19" t="n">
-        <v>80.19563167873326</v>
+        <v>79.14171420769702</v>
       </c>
       <c r="P19" t="n">
-        <v>49.36670082718257</v>
+        <v>48.46489236084182</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>111.6518541669151</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K20" t="n">
-        <v>218.5882151700883</v>
+        <v>216.473758780891</v>
       </c>
       <c r="L20" t="n">
-        <v>308.452516737879</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M20" t="n">
-        <v>375.202188059731</v>
+        <v>372.2834058662057</v>
       </c>
       <c r="N20" t="n">
-        <v>385.9337642282199</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O20" t="n">
-        <v>350.956348911591</v>
+        <v>348.1556286974042</v>
       </c>
       <c r="P20" t="n">
-        <v>264.6836283168169</v>
+        <v>262.2932784109607</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.107041849124</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R20" t="n">
-        <v>1.044169068584154</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>47.49115323085519</v>
+        <v>46.65087734093967</v>
       </c>
       <c r="K21" t="n">
-        <v>160.1142125500393</v>
+        <v>158.678047216999</v>
       </c>
       <c r="L21" t="n">
-        <v>262.0837637058888</v>
+        <v>260.152662181806</v>
       </c>
       <c r="M21" t="n">
-        <v>325.3917826454501</v>
+        <v>323.1382782510199</v>
       </c>
       <c r="N21" t="n">
-        <v>348.5581216821905</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O21" t="n">
-        <v>296.4183474083418</v>
+        <v>294.3022689440065</v>
       </c>
       <c r="P21" t="n">
-        <v>218.3735067576352</v>
+        <v>216.6751672332333</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.5534754445238</v>
+        <v>94.41818044892929</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>50.71241292984797</v>
+        <v>49.84612367850741</v>
       </c>
       <c r="L22" t="n">
-        <v>95.10230534440103</v>
+        <v>93.99375335563548</v>
       </c>
       <c r="M22" t="n">
-        <v>103.563241622341</v>
+        <v>102.3944289806457</v>
       </c>
       <c r="N22" t="n">
-        <v>109.0376340662814</v>
+        <v>107.8966131767809</v>
       </c>
       <c r="O22" t="n">
-        <v>80.19563167873326</v>
+        <v>79.14171420769702</v>
       </c>
       <c r="P22" t="n">
-        <v>49.36670082718257</v>
+        <v>48.46489236084182</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923321</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
